--- a/fcst_results/no_covid_series_HOU-Int_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Int_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33122.44143602252</v>
+        <v>33242.37756770849</v>
       </c>
       <c r="C2" t="n">
-        <v>42768.83445109156</v>
+        <v>32788.27028425038</v>
       </c>
       <c r="D2" t="n">
+        <v>42768.83444922843</v>
+      </c>
+      <c r="E2" t="n">
         <v>33664.51896821272</v>
       </c>
-      <c r="E2" t="n">
-        <v>36743.85855738101</v>
+      <c r="F2" t="n">
+        <v>35320.47517095509</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33586.49573874474</v>
+        <v>33388.80780571699</v>
       </c>
       <c r="C3" t="n">
-        <v>29366.85274795779</v>
+        <v>32661.63234771788</v>
       </c>
       <c r="D3" t="n">
+        <v>29366.85274213152</v>
+      </c>
+      <c r="E3" t="n">
         <v>30300.21953445172</v>
       </c>
-      <c r="E3" t="n">
-        <v>31842.92033823795</v>
+      <c r="F3" t="n">
+        <v>32083.29764050231</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>33380.91577613354</v>
+        <v>33600.90289062262</v>
       </c>
       <c r="C4" t="n">
-        <v>31940.08527679042</v>
+        <v>33357.22289583087</v>
       </c>
       <c r="D4" t="n">
+        <v>31940.08526850851</v>
+      </c>
+      <c r="E4" t="n">
         <v>33247.85434848179</v>
       </c>
-      <c r="E4" t="n">
-        <v>32837.27974464652</v>
+      <c r="F4" t="n">
+        <v>33113.44725209372</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>35040.3192024529</v>
+        <v>33120.78796198964</v>
       </c>
       <c r="C5" t="n">
-        <v>37050.35985801607</v>
+        <v>33871.03748220205</v>
       </c>
       <c r="D5" t="n">
+        <v>37050.35984676608</v>
+      </c>
+      <c r="E5" t="n">
         <v>36665.13230255936</v>
       </c>
-      <c r="E5" t="n">
-        <v>35873.9824482395</v>
+      <c r="F5" t="n">
+        <v>34428.4705634478</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33262.28049588203</v>
+        <v>33337.68641859293</v>
       </c>
       <c r="C6" t="n">
-        <v>39126.24739941274</v>
+        <v>33917.15597447753</v>
       </c>
       <c r="D6" t="n">
+        <v>39126.24738652547</v>
+      </c>
+      <c r="E6" t="n">
         <v>38780.61773097503</v>
       </c>
-      <c r="E6" t="n">
-        <v>35735.05278567791</v>
+      <c r="F6" t="n">
+        <v>35083.20719322145</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>36664.74582532048</v>
+        <v>36594.78431650996</v>
       </c>
       <c r="C7" t="n">
-        <v>30000.76528226981</v>
+        <v>35841.59232369065</v>
       </c>
       <c r="D7" t="n">
+        <v>30000.76527183234</v>
+      </c>
+      <c r="E7" t="n">
         <v>27697.69541809021</v>
       </c>
-      <c r="E7" t="n">
-        <v>33713.64072945799</v>
+      <c r="F7" t="n">
+        <v>34481.33190677183</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>40048.36708211899</v>
+        <v>38224.20692005754</v>
       </c>
       <c r="C8" t="n">
-        <v>22040.15178163605</v>
+        <v>36909.89063611627</v>
       </c>
       <c r="D8" t="n">
+        <v>22040.15177370069</v>
+      </c>
+      <c r="E8" t="n">
         <v>21529.76843322252</v>
       </c>
-      <c r="E8" t="n">
-        <v>32372.2993316998</v>
+      <c r="F8" t="n">
+        <v>33403.30573257162</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39982.13823661208</v>
+        <v>39848.61181268096</v>
       </c>
       <c r="C9" t="n">
-        <v>27946.81746954036</v>
+        <v>36865.3633903563</v>
       </c>
       <c r="D9" t="n">
+        <v>27946.81746304931</v>
+      </c>
+      <c r="E9" t="n">
         <v>26288.83112180295</v>
       </c>
-      <c r="E9" t="n">
-        <v>34783.17415045056</v>
+      <c r="F9" t="n">
+        <v>35537.19439952885</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>36167.19632670283</v>
+        <v>37448.24854552746</v>
       </c>
       <c r="C10" t="n">
-        <v>35149.54351735482</v>
+        <v>33983.1517137289</v>
       </c>
       <c r="D10" t="n">
+        <v>35149.54351236922</v>
+      </c>
+      <c r="E10" t="n">
         <v>28642.65247217976</v>
       </c>
-      <c r="E10" t="n">
-        <v>35394.65827647252</v>
+      <c r="F10" t="n">
+        <v>35370.20022715076</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>33019.72948604822</v>
+        <v>31998.09292200208</v>
       </c>
       <c r="C11" t="n">
-        <v>37682.11272238519</v>
+        <v>33633.98521187901</v>
       </c>
       <c r="D11" t="n">
+        <v>37682.11271637251</v>
+      </c>
+      <c r="E11" t="n">
         <v>33926.55001114417</v>
       </c>
-      <c r="E11" t="n">
-        <v>34803.78587642116</v>
+      <c r="F11" t="n">
+        <v>33978.15428507105</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32830.85909345746</v>
+        <v>32742.34341321886</v>
       </c>
       <c r="C12" t="n">
-        <v>32308.32897905019</v>
+        <v>33528.50858220458</v>
       </c>
       <c r="D12" t="n">
+        <v>32308.32897529986</v>
+      </c>
+      <c r="E12" t="n">
         <v>27621.21806516847</v>
       </c>
-      <c r="E12" t="n">
-        <v>32363.79775091053</v>
+      <c r="F12" t="n">
+        <v>32748.4301222464</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>35193.6962044239</v>
+        <v>35440.03914186358</v>
       </c>
       <c r="C13" t="n">
-        <v>31659.65275004424</v>
+        <v>35448.23341938853</v>
       </c>
       <c r="D13" t="n">
+        <v>31659.65275139109</v>
+      </c>
+      <c r="E13" t="n">
         <v>22502.22173637916</v>
       </c>
-      <c r="E13" t="n">
-        <v>33213.66093697232</v>
+      <c r="F13" t="n">
+        <v>34119.54126220142</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>38105.46693953872</v>
+        <v>39030.37329718471</v>
       </c>
       <c r="C14" t="n">
-        <v>41569.48720113581</v>
+        <v>37063.39703181386</v>
       </c>
       <c r="D14" t="n">
+        <v>41569.48720061951</v>
+      </c>
+      <c r="E14" t="n">
         <v>28477.76420144224</v>
       </c>
-      <c r="E14" t="n">
-        <v>38892.27236642299</v>
+      <c r="F14" t="n">
+        <v>38560.28721488553</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>37340.07045140862</v>
+        <v>36558.74668204784</v>
       </c>
       <c r="C15" t="n">
-        <v>28167.50549800204</v>
+        <v>37032.03337532282</v>
       </c>
       <c r="D15" t="n">
+        <v>28167.50549352261</v>
+      </c>
+      <c r="E15" t="n">
         <v>22809.00448685582</v>
       </c>
-      <c r="E15" t="n">
-        <v>33163.61083095647</v>
+      <c r="F15" t="n">
+        <v>34299.66049995779</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39561.10784184933</v>
+        <v>39549.12262445688</v>
       </c>
       <c r="C16" t="n">
-        <v>30740.73802683467</v>
+        <v>40045.52239561081</v>
       </c>
       <c r="D16" t="n">
-        <v>26032.21215153513</v>
+        <v>30740.7380198996</v>
       </c>
       <c r="E16" t="n">
-        <v>35568.24017612698</v>
+        <v>26032.21215153514</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37208.74302732129</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>37715.32114815712</v>
+        <v>37359.02613848448</v>
       </c>
       <c r="C17" t="n">
-        <v>35851.01260806032</v>
+        <v>37823.17822730541</v>
       </c>
       <c r="D17" t="n">
-        <v>30567.10141821986</v>
+        <v>35851.01259815718</v>
       </c>
       <c r="E17" t="n">
-        <v>36647.10169595965</v>
+        <v>30567.10141821985</v>
+      </c>
+      <c r="F17" t="n">
+        <v>36941.93240994729</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>37494.31468766928</v>
+        <v>39107.03562310338</v>
       </c>
       <c r="C18" t="n">
-        <v>37926.900149457</v>
+        <v>37848.33592361212</v>
       </c>
       <c r="D18" t="n">
+        <v>37926.90013791656</v>
+      </c>
+      <c r="E18" t="n">
         <v>33074.34895645222</v>
       </c>
-      <c r="E18" t="n">
-        <v>37424.30784511372</v>
+      <c r="F18" t="n">
+        <v>38175.15785036294</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>43917.89931631088</v>
+        <v>43671.39932847023</v>
       </c>
       <c r="C19" t="n">
-        <v>28801.41803231407</v>
+        <v>43881.90217912197</v>
       </c>
       <c r="D19" t="n">
+        <v>28801.41802322343</v>
+      </c>
+      <c r="E19" t="n">
         <v>21704.34035468017</v>
       </c>
-      <c r="E19" t="n">
-        <v>37125.71673252687</v>
+      <c r="F19" t="n">
+        <v>39524.61008752971</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>44023.2949514389</v>
+        <v>44740.26657819748</v>
       </c>
       <c r="C20" t="n">
-        <v>20840.80453168031</v>
+        <v>43463.2512460947</v>
       </c>
       <c r="D20" t="n">
+        <v>20840.80452509178</v>
+      </c>
+      <c r="E20" t="n">
         <v>14203.76924652807</v>
       </c>
-      <c r="E20" t="n">
-        <v>33828.95816597869</v>
+      <c r="F20" t="n">
+        <v>37658.89355506893</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>40385.4169973731</v>
+        <v>45638.12470829487</v>
       </c>
       <c r="C21" t="n">
-        <v>26747.47021958463</v>
+        <v>45062.76908272505</v>
       </c>
       <c r="D21" t="n">
+        <v>26747.4702144404</v>
+      </c>
+      <c r="E21" t="n">
         <v>19255.29824495617</v>
       </c>
-      <c r="E21" t="n">
-        <v>34200.6129874476</v>
+      <c r="F21" t="n">
+        <v>40119.97373501928</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>43291.6633117795</v>
+        <v>42906.82661414146</v>
       </c>
       <c r="C22" t="n">
-        <v>33950.19626739908</v>
+        <v>41482.14242011309</v>
       </c>
       <c r="D22" t="n">
-        <v>22955.66076581013</v>
+        <v>33950.19626376031</v>
       </c>
       <c r="E22" t="n">
-        <v>38748.73095380748</v>
+        <v>22955.66076581014</v>
+      </c>
+      <c r="F22" t="n">
+        <v>39624.77262947056</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>38706.74575865269</v>
+        <v>39119.16307482123</v>
       </c>
       <c r="C23" t="n">
-        <v>36482.76547242946</v>
+        <v>37380.54105567932</v>
       </c>
       <c r="D23" t="n">
+        <v>36482.76546776359</v>
+      </c>
+      <c r="E23" t="n">
         <v>27718.15186696986</v>
       </c>
-      <c r="E23" t="n">
-        <v>37303.72988421988</v>
+      <c r="F23" t="n">
+        <v>37492.46845019917</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>36614.37808257341</v>
+        <v>36986.03044843674</v>
       </c>
       <c r="C24" t="n">
-        <v>31108.98172909446</v>
+        <v>37417.6760674715</v>
       </c>
       <c r="D24" t="n">
+        <v>31108.98172669094</v>
+      </c>
+      <c r="E24" t="n">
         <v>20376.57660431757</v>
       </c>
-      <c r="E24" t="n">
-        <v>33714.60723665309</v>
+      <c r="F24" t="n">
+        <v>35202.3815970595</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>37821.95046851039</v>
+        <v>37302.95519438386</v>
       </c>
       <c r="C25" t="n">
-        <v>30460.30550008851</v>
+        <v>38553.35887929797</v>
       </c>
       <c r="D25" t="n">
+        <v>30460.30550278218</v>
+      </c>
+      <c r="E25" t="n">
         <v>16022.94496392362</v>
       </c>
-      <c r="E25" t="n">
-        <v>33939.95291038144</v>
+      <c r="F25" t="n">
+        <v>35428.15293434522</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>41548.00086373091</v>
+        <v>39666.13900151849</v>
       </c>
       <c r="C26" t="n">
-        <v>40370.13995118008</v>
+        <v>38867.0932303071</v>
       </c>
       <c r="D26" t="n">
+        <v>40370.1399520106</v>
+      </c>
+      <c r="E26" t="n">
         <v>23270.38047470125</v>
       </c>
-      <c r="E26" t="n">
-        <v>40153.47287414941</v>
+      <c r="F26" t="n">
+        <v>38986.90887928051</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>38779.52726051211</v>
+        <v>38914.08685877919</v>
       </c>
       <c r="C27" t="n">
-        <v>26968.15824804631</v>
+        <v>41895.05064225197</v>
       </c>
       <c r="D27" t="n">
+        <v>26968.15824491369</v>
+      </c>
+      <c r="E27" t="n">
         <v>15292.88215569458</v>
       </c>
-      <c r="E27" t="n">
-        <v>33151.85244383308</v>
+      <c r="F27" t="n">
+        <v>36386.97888618641</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>40951.35947626829</v>
+        <v>40237.20092839003</v>
       </c>
       <c r="C28" t="n">
-        <v>29541.39077687894</v>
+        <v>40205.17548719049</v>
       </c>
       <c r="D28" t="n">
-        <v>18836.77849978202</v>
+        <v>29541.39077129069</v>
       </c>
       <c r="E28" t="n">
-        <v>35544.94750518959</v>
+        <v>18836.77849978203</v>
+      </c>
+      <c r="F28" t="n">
+        <v>36998.33784480434</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37286.287109375</v>
+        <v>37244.54232260585</v>
       </c>
       <c r="C29" t="n">
-        <v>34651.66535810458</v>
+        <v>37287.64623737335</v>
       </c>
       <c r="D29" t="n">
-        <v>24493.84823356891</v>
+        <v>34651.66534954826</v>
       </c>
       <c r="E29" t="n">
-        <v>35635.98693361854</v>
+        <v>24493.84823356892</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36220.44713131137</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>33249.07048290968</v>
+        <v>32208.11029924452</v>
       </c>
       <c r="C30" t="n">
-        <v>36727.55289950126</v>
+        <v>32037.42861488461</v>
       </c>
       <c r="D30" t="n">
+        <v>36727.55288930765</v>
+      </c>
+      <c r="E30" t="n">
         <v>27364.17225212542</v>
       </c>
-      <c r="E30" t="n">
-        <v>34236.98706669569</v>
+      <c r="F30" t="n">
+        <v>33038.49676926696</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>34701.68495485187</v>
+        <v>34467.30846777558</v>
       </c>
       <c r="C31" t="n">
-        <v>27602.07078235833</v>
+        <v>36486.37212839723</v>
       </c>
       <c r="D31" t="n">
+        <v>27602.07077461451</v>
+      </c>
+      <c r="E31" t="n">
         <v>15685.65458531638</v>
       </c>
-      <c r="E31" t="n">
-        <v>31062.81961630197</v>
+      <c r="F31" t="n">
+        <v>32947.55744410744</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>33986.58114135265</v>
+        <v>34008.52671247721</v>
       </c>
       <c r="C32" t="n">
-        <v>19641.45728172457</v>
+        <v>36050.55232700706</v>
       </c>
       <c r="D32" t="n">
+        <v>19641.45727648286</v>
+      </c>
+      <c r="E32" t="n">
         <v>6864.89963429511</v>
       </c>
-      <c r="E32" t="n">
-        <v>27225.04942183693</v>
+      <c r="F32" t="n">
+        <v>30459.41802240694</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33934.25866436958</v>
+        <v>33514.29897800088</v>
       </c>
       <c r="C33" t="n">
-        <v>25548.12296962889</v>
+        <v>36961.99185970426</v>
       </c>
       <c r="D33" t="n">
+        <v>25548.12296583148</v>
+      </c>
+      <c r="E33" t="n">
         <v>12243.16008452258</v>
       </c>
-      <c r="E33" t="n">
-        <v>29676.30359279767</v>
+      <c r="F33" t="n">
+        <v>32164.41895807705</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>36709.55655199289</v>
+        <v>32376.69007635117</v>
       </c>
       <c r="C34" t="n">
-        <v>32750.84901744334</v>
+        <v>35395.27977758646</v>
       </c>
       <c r="D34" t="n">
+        <v>32750.84901515139</v>
+      </c>
+      <c r="E34" t="n">
         <v>17281.27760985001</v>
       </c>
-      <c r="E34" t="n">
-        <v>34219.05218409226</v>
+      <c r="F34" t="n">
+        <v>33032.29275805791</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>30209.15797959268</v>
+        <v>29561.1611110121</v>
       </c>
       <c r="C35" t="n">
-        <v>35283.41822247372</v>
+        <v>30250.92745982111</v>
       </c>
       <c r="D35" t="n">
+        <v>35283.41821915468</v>
+      </c>
+      <c r="E35" t="n">
         <v>21490.29922244512</v>
       </c>
-      <c r="E35" t="n">
-        <v>31643.26913679412</v>
+      <c r="F35" t="n">
+        <v>30871.19837233481</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29978.2262300849</v>
+        <v>29993.82163122296</v>
       </c>
       <c r="C36" t="n">
-        <v>29909.63447913872</v>
+        <v>28886.03551420569</v>
       </c>
       <c r="D36" t="n">
+        <v>29909.63447808203</v>
+      </c>
+      <c r="E36" t="n">
         <v>13131.1951432342</v>
       </c>
-      <c r="E36" t="n">
-        <v>29071.68720473209</v>
+      <c r="F36" t="n">
+        <v>29003.89982079103</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>33913.16748693585</v>
+        <v>34325.08006879687</v>
       </c>
       <c r="C37" t="n">
-        <v>29260.95825013277</v>
+        <v>31542.46847240627</v>
       </c>
       <c r="D37" t="n">
-        <v>9567.939870700746</v>
+        <v>29260.95825417326</v>
       </c>
       <c r="E37" t="n">
-        <v>30907.22451248296</v>
+        <v>9567.939870700742</v>
+      </c>
+      <c r="F37" t="n">
+        <v>31302.83998643297</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32785.1031011641</v>
+        <v>32034.16216409206</v>
       </c>
       <c r="C38" t="n">
-        <v>39170.79270122434</v>
+        <v>32952.35585176945</v>
       </c>
       <c r="D38" t="n">
+        <v>39170.79270340168</v>
+      </c>
+      <c r="E38" t="n">
         <v>18041.17629654186</v>
       </c>
-      <c r="E38" t="n">
-        <v>34392.62109998952</v>
+      <c r="F38" t="n">
+        <v>33555.22263343854</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>32751.76248632371</v>
+        <v>34722.01656147838</v>
       </c>
       <c r="C39" t="n">
-        <v>25768.81099809057</v>
+        <v>32688.36449898779</v>
       </c>
       <c r="D39" t="n">
+        <v>25768.81099630478</v>
+      </c>
+      <c r="E39" t="n">
         <v>7752.963213589366</v>
       </c>
-      <c r="E39" t="n">
-        <v>28843.49155750326</v>
+      <c r="F39" t="n">
+        <v>30983.96868040308</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,7 +1356,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1315,7 +1367,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1339,19 +1391,19 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>13009.44128863486</v>
+        <v>13004.72542253274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3402658886149542</v>
+        <v>0.3365390753692939</v>
       </c>
       <c r="M2" t="n">
-        <v>11298.14556465944</v>
+        <v>11088.27149892648</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.529379232308315</v>
+        <v>-3.52609606678759</v>
       </c>
       <c r="O2" t="n">
-        <v>49521.65808546543</v>
+        <v>52580.21181082726</v>
       </c>
       <c r="P2" t="n">
         <v>32859</v>
@@ -1360,19 +1412,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>9872.081298177571</v>
+        <v>11122.21369554045</v>
       </c>
       <c r="S2" t="n">
-        <v>5795.187708600371</v>
+        <v>5671.209760462018</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1208934744285664</v>
+        <v>0.1203925958453089</v>
       </c>
       <c r="U2" t="n">
-        <v>4448.695561826576</v>
+        <v>4501.389028837514</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2684862122739654</v>
+        <v>0.2994503462287087</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1383,16 +1435,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>13009.44128863486</v>
+        <v>13004.72542253274</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3402658886149542</v>
+        <v>0.3365390753692939</v>
       </c>
       <c r="AE2" t="n">
-        <v>11298.14556465944</v>
+        <v>11088.27149892648</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.529379232308315</v>
+        <v>-3.52609606678759</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1430,19 +1482,19 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>13012.27984582829</v>
+        <v>12875.79514594825</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3455286621981103</v>
+        <v>0.340202990269795</v>
       </c>
       <c r="M3" t="n">
-        <v>11625.25000873416</v>
+        <v>11283.29923783687</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.531355997390461</v>
+        <v>-3.436796507525265</v>
       </c>
       <c r="O3" t="n">
-        <v>47925.57122278701</v>
+        <v>49864.73829594535</v>
       </c>
       <c r="P3" t="n">
         <v>32859</v>
@@ -1451,19 +1503,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>7603.086192042467</v>
+        <v>8413.927806469006</v>
       </c>
       <c r="S3" t="n">
-        <v>4263.509238749493</v>
+        <v>4519.286292412201</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09065608728944081</v>
+        <v>0.09629675292959927</v>
       </c>
       <c r="U3" t="n">
-        <v>3332.26109302999</v>
+        <v>3575.100887017962</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6040668017886623</v>
+        <v>0.5551360539081694</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1471,25 +1523,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['lstm', 'arima', 'prophet']</t>
+          <t>['lstm_reg', 'lstm', 'arima', 'prophet']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5752284224310187, 0.3724780846207069, 0.05229349294827442)</t>
+          <t>(0.37402730854637806, 0.35825980005804686, 0.23371040880044983, 0.034002482595125276)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>13012.27984582829</v>
+        <v>12875.79514594825</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3455286621981103</v>
+        <v>0.340202990269795</v>
       </c>
       <c r="AE3" t="n">
-        <v>11625.25000873416</v>
+        <v>11283.29923783687</v>
       </c>
       <c r="AF3" t="n">
-        <v>-3.531355997390461</v>
+        <v>-3.436796507525265</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1498,21 +1550,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'order': (0, 1, 0), 'seasonal_order': (0, 1, 1, 12), 'trend': None}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
@@ -1529,19 +1585,19 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>14117.75863762159</v>
+        <v>13226.07602166571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3742798941973187</v>
+        <v>0.3407800375544844</v>
       </c>
       <c r="M4" t="n">
-        <v>13087.77159220715</v>
+        <v>11163.30863218307</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.333998620420773</v>
+        <v>-3.681482699462612</v>
       </c>
       <c r="O4" t="n">
-        <v>45443.99201668979</v>
+        <v>50086.38110995293</v>
       </c>
       <c r="P4" t="n">
         <v>32859</v>
@@ -1550,19 +1606,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>13352.98927757192</v>
+        <v>11178.20335886897</v>
       </c>
       <c r="S4" t="n">
-        <v>6853.200297334472</v>
+        <v>5711.173911548645</v>
       </c>
       <c r="T4" t="n">
-        <v>0.118222640282378</v>
+        <v>0.1184826653883773</v>
       </c>
       <c r="U4" t="n">
-        <v>4107.800200398927</v>
+        <v>4370.806782895743</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01075046556714188</v>
+        <v>0.289542224949464</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1573,16 +1629,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>14117.75863762159</v>
+        <v>13226.07602166571</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3742798941973187</v>
+        <v>0.3407800375544844</v>
       </c>
       <c r="AE4" t="n">
-        <v>13087.77159220715</v>
+        <v>11163.30863218307</v>
       </c>
       <c r="AF4" t="n">
-        <v>-4.333998620420773</v>
+        <v>-3.681482699462612</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1591,18 +1647,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'order': (0, 1, 0), 'seasonal_order': (0, 1, 1, 12), 'trend': None}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1622,19 +1678,19 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>16802.91775941641</v>
+        <v>14117.75860244194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4279950228928001</v>
+        <v>0.3742798932167073</v>
       </c>
       <c r="M5" t="n">
-        <v>15318.52586089467</v>
+        <v>13087.77155775971</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.555979953552552</v>
+        <v>-4.333998593837488</v>
       </c>
       <c r="O5" t="n">
-        <v>48044.50268231743</v>
+        <v>45443.99197162706</v>
       </c>
       <c r="P5" t="n">
         <v>32859</v>
@@ -1643,19 +1699,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>3587.074338704361</v>
+        <v>11497.9514815066</v>
       </c>
       <c r="S5" t="n">
-        <v>2223.913349845943</v>
+        <v>6853.20029904793</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04881725845894708</v>
+        <v>0.1182226402906901</v>
       </c>
       <c r="U5" t="n">
-        <v>1807.104567303514</v>
+        <v>4107.800200757471</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8958271062864733</v>
+        <v>0.01075046507247157</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1722,111 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
+        <v>14117.75860244194</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3742798932167073</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13087.77155775971</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-4.333998593837488</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
         <v>16802.91775941641</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="L6" t="n">
         <v>0.4279950228928001</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="M6" t="n">
         <v>15318.52586089467</v>
       </c>
-      <c r="AF5" t="n">
-        <v>-6.555979953552552</v>
-      </c>
-      <c r="AG5" t="b">
+      <c r="N6" t="n">
+        <v>-6.555979953552551</v>
+      </c>
+      <c r="O6" t="n">
+        <v>48044.50268231743</v>
+      </c>
+      <c r="P6" t="n">
+        <v>32859</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4003.272269457161</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2223.913349845942</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04881725845894706</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1807.104567303513</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8958271062864733</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>16802.91775941641</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.4279950228928001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15318.52586089467</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-6.555979953552551</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2372,11 +2521,11 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>33122.44143602252</v>
+        <v>33242.37756770849</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2385,11 +2534,11 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>33586.49573874474</v>
+        <v>33388.80780571699</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2398,11 +2547,11 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>33380.91577613354</v>
+        <v>33600.90289062262</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2411,11 +2560,11 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>35040.3192024529</v>
+        <v>33120.78796198964</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2424,11 +2573,11 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>33262.28049588203</v>
+        <v>33337.68641859293</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2437,11 +2586,11 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>36664.74582532048</v>
+        <v>36594.78431650996</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2450,11 +2599,11 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>40048.36708211899</v>
+        <v>38224.20692005754</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2463,11 +2612,11 @@
         <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>39982.13823661208</v>
+        <v>39848.61181268096</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2476,11 +2625,11 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>36167.19632670283</v>
+        <v>37448.24854552746</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2489,11 +2638,11 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>33019.72948604822</v>
+        <v>31998.09292200208</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2502,11 +2651,11 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>32830.85909345746</v>
+        <v>32742.34341321886</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2515,11 +2664,11 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>35193.6962044239</v>
+        <v>35440.03914186358</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2528,11 +2677,11 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>38105.46693953872</v>
+        <v>39030.37329718471</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2541,11 +2690,11 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>37340.07045140862</v>
+        <v>36558.74668204784</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2554,11 +2703,11 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>39561.10784184933</v>
+        <v>39549.12262445688</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2567,11 +2716,11 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>37715.32114815712</v>
+        <v>37359.02613848448</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2580,11 +2729,11 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>37494.31468766928</v>
+        <v>39107.03562310338</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2593,11 +2742,11 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>43917.89931631088</v>
+        <v>43671.39932847023</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2606,11 +2755,11 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>44023.2949514389</v>
+        <v>44740.26657819748</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2619,11 +2768,11 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>40385.4169973731</v>
+        <v>45638.12470829487</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2632,11 +2781,11 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>43291.6633117795</v>
+        <v>42906.82661414146</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2645,11 +2794,11 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>38706.74575865269</v>
+        <v>39119.16307482123</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2658,11 +2807,11 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>36614.37808257341</v>
+        <v>36986.03044843674</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2671,11 +2820,11 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>37821.95046851039</v>
+        <v>37302.95519438386</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2684,11 +2833,11 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>41548.00086373091</v>
+        <v>39666.13900151849</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2697,11 +2846,11 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>38779.52726051211</v>
+        <v>38914.08685877919</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2710,11 +2859,11 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>40951.35947626829</v>
+        <v>40237.20092839003</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2723,11 +2872,11 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>37286.287109375</v>
+        <v>37244.54232260585</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2736,11 +2885,11 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>33249.07048290968</v>
+        <v>32208.11029924452</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2749,11 +2898,11 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>34701.68495485187</v>
+        <v>34467.30846777558</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2762,11 +2911,11 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>33986.58114135265</v>
+        <v>34008.52671247721</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2775,11 +2924,11 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>33934.25866436958</v>
+        <v>33514.29897800088</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2788,11 +2937,11 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>36709.55655199289</v>
+        <v>32376.69007635117</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2950,11 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>30209.15797959268</v>
+        <v>29561.1611110121</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2814,11 +2963,11 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>29978.2262300849</v>
+        <v>29993.82163122296</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2827,11 +2976,11 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>33913.16748693585</v>
+        <v>34325.08006879687</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2840,11 +2989,11 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>32785.1031011641</v>
+        <v>32034.16216409206</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2853,11 +3002,11 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>32751.76248632371</v>
+        <v>34722.01656147838</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -2872,7 +3021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,20 +3042,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -2920,15 +3074,18 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>42308.17855715752</v>
+        <v>40763.58536010981</v>
       </c>
       <c r="D2" t="n">
-        <v>47534.51797554324</v>
+        <v>44209.95247621513</v>
       </c>
       <c r="E2" t="n">
-        <v>53678.12793524702</v>
+        <v>40012.81309956312</v>
       </c>
       <c r="F2" t="n">
+        <v>53678.12792135916</v>
+      </c>
+      <c r="G2" t="n">
         <v>61264.31240694756</v>
       </c>
     </row>
@@ -2940,15 +3097,18 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>39078.51484102011</v>
+        <v>39156.01828616858</v>
       </c>
       <c r="D3" t="n">
-        <v>41327.48255663554</v>
+        <v>40406.47512764804</v>
       </c>
       <c r="E3" t="n">
-        <v>44363.79056071245</v>
+        <v>38747.68853628635</v>
       </c>
       <c r="F3" t="n">
+        <v>44363.7905400532</v>
+      </c>
+      <c r="G3" t="n">
         <v>44438.99705492344</v>
       </c>
     </row>
@@ -2960,15 +3120,18 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>40531.25193065405</v>
+        <v>39303.77109980583</v>
       </c>
       <c r="D4" t="n">
-        <v>40616.72588322158</v>
+        <v>39664.00553007231</v>
       </c>
       <c r="E4" t="n">
-        <v>40497.81803975926</v>
+        <v>39236.11386960745</v>
       </c>
       <c r="F4" t="n">
+        <v>40497.81802027613</v>
+      </c>
+      <c r="G4" t="n">
         <v>42403.90068078259</v>
       </c>
     </row>
@@ -2980,15 +3143,18 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>42711.10150134563</v>
+        <v>41390.44428575039</v>
       </c>
       <c r="D5" t="n">
-        <v>46718.33381532907</v>
+        <v>45336.09879000483</v>
       </c>
       <c r="E5" t="n">
-        <v>52188.72662288513</v>
+        <v>44368.46481812</v>
       </c>
       <c r="F5" t="n">
+        <v>52188.72658387622</v>
+      </c>
+      <c r="G5" t="n">
         <v>51833.16688778203</v>
       </c>
     </row>
@@ -3000,16 +3166,19 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>44518.05466079712</v>
+        <v>43030.87490606308</v>
       </c>
       <c r="D6" t="n">
-        <v>44712.41592285902</v>
+        <v>43640.5552020119</v>
       </c>
       <c r="E6" t="n">
-        <v>44944.78021640424</v>
+        <v>43278.69785153866</v>
       </c>
       <c r="F6" t="n">
-        <v>45195.29655943416</v>
+        <v>44944.78019488401</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45195.29655943417</v>
       </c>
     </row>
     <row r="7">
@@ -3020,15 +3189,18 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>43128.92551636696</v>
+        <v>42526.68352472782</v>
       </c>
       <c r="D7" t="n">
-        <v>46255.49944414627</v>
+        <v>44640.11616397019</v>
       </c>
       <c r="E7" t="n">
-        <v>50506.19311538591</v>
+        <v>42475.9338517189</v>
       </c>
       <c r="F7" t="n">
+        <v>50506.19308376859</v>
+      </c>
+      <c r="G7" t="n">
         <v>50370.80976259477</v>
       </c>
     </row>
@@ -3040,16 +3212,19 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>43455.18485331535</v>
+        <v>44943.77613162994</v>
       </c>
       <c r="D8" t="n">
-        <v>50181.07458453801</v>
+        <v>49174.02571412893</v>
       </c>
       <c r="E8" t="n">
-        <v>59157.22382850799</v>
+        <v>46028.58228182793</v>
       </c>
       <c r="F8" t="n">
-        <v>60230.20368732031</v>
+        <v>59157.22378324738</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60230.2036873203</v>
       </c>
     </row>
     <row r="9">
@@ -3060,16 +3235,19 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>49408.85910212994</v>
+        <v>45899.09268391132</v>
       </c>
       <c r="D9" t="n">
-        <v>55572.28170195853</v>
+        <v>50976.92076502365</v>
       </c>
       <c r="E9" t="n">
-        <v>63510.09396525913</v>
+        <v>46597.59387993813</v>
       </c>
       <c r="F9" t="n">
-        <v>66830.17857919437</v>
+        <v>63510.09392068678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66830.17857919435</v>
       </c>
     </row>
     <row r="10">
@@ -3080,16 +3258,19 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>46802.26852345467</v>
+        <v>45072.12794470787</v>
       </c>
       <c r="D10" t="n">
-        <v>48448.29450566801</v>
+        <v>46878.27669621176</v>
       </c>
       <c r="E10" t="n">
-        <v>50695.50359534775</v>
+        <v>45925.45167636871</v>
       </c>
       <c r="F10" t="n">
-        <v>50548.07375872935</v>
+        <v>50695.50354242595</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50548.07375872936</v>
       </c>
     </row>
     <row r="11">
@@ -3100,15 +3281,18 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>45251.03017878532</v>
+        <v>48392.55095112324</v>
       </c>
       <c r="D11" t="n">
-        <v>42789.16379628045</v>
+        <v>46999.39898954239</v>
       </c>
       <c r="E11" t="n">
-        <v>39677.36852016934</v>
+        <v>51187.59668731689</v>
       </c>
       <c r="F11" t="n">
+        <v>39677.36847653682</v>
+      </c>
+      <c r="G11" t="n">
         <v>37873.44758048125</v>
       </c>
     </row>
@@ -3120,16 +3304,19 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>51361.90681433678</v>
+        <v>52016.47945988178</v>
       </c>
       <c r="D12" t="n">
-        <v>48395.98849983329</v>
+        <v>50006.00147701261</v>
       </c>
       <c r="E12" t="n">
-        <v>44218.51503998814</v>
+        <v>52107.66425561905</v>
       </c>
       <c r="F12" t="n">
-        <v>45526.35421507466</v>
+        <v>44218.51501218921</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45526.35421507467</v>
       </c>
     </row>
     <row r="13">
@@ -3140,15 +3327,18 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>53113.32452821732</v>
+        <v>49771.24636650085</v>
       </c>
       <c r="D13" t="n">
-        <v>51686.09027953353</v>
+        <v>49773.77182576601</v>
       </c>
       <c r="E13" t="n">
-        <v>49425.17397693053</v>
+        <v>49783.92028403282</v>
       </c>
       <c r="F13" t="n">
+        <v>49425.17395135095</v>
+      </c>
+      <c r="G13" t="n">
         <v>52090.65435392671</v>
       </c>
     </row>
@@ -3160,15 +3350,18 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>52708.29174733162</v>
+        <v>52696.0721988678</v>
       </c>
       <c r="D14" t="n">
-        <v>56000.79213078883</v>
+        <v>54948.00689238343</v>
       </c>
       <c r="E14" t="n">
-        <v>58624.30191217755</v>
+        <v>53137.06717419624</v>
       </c>
       <c r="F14" t="n">
+        <v>58624.3018727101</v>
+      </c>
+      <c r="G14" t="n">
         <v>73531.46088877431</v>
       </c>
     </row>
@@ -3180,15 +3373,18 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>53808.22242856026</v>
+        <v>51440.23333787918</v>
       </c>
       <c r="D15" t="n">
-        <v>51908.55376297646</v>
+        <v>50580.99982934283</v>
       </c>
       <c r="E15" t="n">
-        <v>49309.96453764298</v>
+        <v>50613.66337835789</v>
       </c>
       <c r="F15" t="n">
+        <v>49309.96449140414</v>
+      </c>
+      <c r="G15" t="n">
         <v>49521.52881513714</v>
       </c>
     </row>
@@ -3200,15 +3396,18 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>49521.65808546543</v>
+        <v>52580.21181082726</v>
       </c>
       <c r="D16" t="n">
-        <v>47925.57122278701</v>
+        <v>49864.73829594535</v>
       </c>
       <c r="E16" t="n">
-        <v>45443.99201668979</v>
+        <v>50086.38110995293</v>
       </c>
       <c r="F16" t="n">
+        <v>45443.99197162706</v>
+      </c>
+      <c r="G16" t="n">
         <v>48044.50268231743</v>
       </c>
     </row>
@@ -3223,7 +3422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3244,20 +3443,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -3271,15 +3475,18 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>42308.17855715752</v>
+        <v>40763.58536010981</v>
       </c>
       <c r="D2" t="n">
-        <v>47534.51797554324</v>
+        <v>44209.95247621513</v>
       </c>
       <c r="E2" t="n">
-        <v>53678.12793524702</v>
+        <v>40012.81309956312</v>
       </c>
       <c r="F2" t="n">
+        <v>53678.12792135916</v>
+      </c>
+      <c r="G2" t="n">
         <v>61264.31240694756</v>
       </c>
     </row>
@@ -3291,15 +3498,18 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>39078.51484102011</v>
+        <v>39156.01828616858</v>
       </c>
       <c r="D3" t="n">
-        <v>41327.48255663554</v>
+        <v>40406.47512764804</v>
       </c>
       <c r="E3" t="n">
-        <v>44363.79056071245</v>
+        <v>38747.68853628635</v>
       </c>
       <c r="F3" t="n">
+        <v>44363.7905400532</v>
+      </c>
+      <c r="G3" t="n">
         <v>44438.99705492344</v>
       </c>
     </row>
@@ -3311,15 +3521,18 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>40531.25193065405</v>
+        <v>39303.77109980583</v>
       </c>
       <c r="D4" t="n">
-        <v>40616.72588322158</v>
+        <v>39664.00553007231</v>
       </c>
       <c r="E4" t="n">
-        <v>40497.81803975926</v>
+        <v>39236.11386960745</v>
       </c>
       <c r="F4" t="n">
+        <v>40497.81802027613</v>
+      </c>
+      <c r="G4" t="n">
         <v>42403.90068078259</v>
       </c>
     </row>
@@ -3331,15 +3544,18 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>42711.10150134563</v>
+        <v>41390.44428575039</v>
       </c>
       <c r="D5" t="n">
-        <v>46718.33381532907</v>
+        <v>45336.09879000483</v>
       </c>
       <c r="E5" t="n">
-        <v>52188.72662288513</v>
+        <v>44368.46481812</v>
       </c>
       <c r="F5" t="n">
+        <v>52188.72658387622</v>
+      </c>
+      <c r="G5" t="n">
         <v>51833.16688778203</v>
       </c>
     </row>
@@ -3351,16 +3567,19 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>44518.05466079712</v>
+        <v>43030.87490606308</v>
       </c>
       <c r="D6" t="n">
-        <v>44712.41592285902</v>
+        <v>43640.5552020119</v>
       </c>
       <c r="E6" t="n">
-        <v>44944.78021640424</v>
+        <v>43278.69785153866</v>
       </c>
       <c r="F6" t="n">
-        <v>45195.29655943416</v>
+        <v>44944.78019488401</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45195.29655943417</v>
       </c>
     </row>
     <row r="7">
@@ -3371,15 +3590,18 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>43128.92551636696</v>
+        <v>42526.68352472782</v>
       </c>
       <c r="D7" t="n">
-        <v>46255.49944414627</v>
+        <v>44640.11616397019</v>
       </c>
       <c r="E7" t="n">
-        <v>50506.19311538591</v>
+        <v>42475.9338517189</v>
       </c>
       <c r="F7" t="n">
+        <v>50506.19308376859</v>
+      </c>
+      <c r="G7" t="n">
         <v>50370.80976259477</v>
       </c>
     </row>
@@ -3391,16 +3613,19 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>43455.18485331535</v>
+        <v>44943.77613162994</v>
       </c>
       <c r="D8" t="n">
-        <v>50181.07458453801</v>
+        <v>49174.02571412893</v>
       </c>
       <c r="E8" t="n">
-        <v>59157.22382850799</v>
+        <v>46028.58228182793</v>
       </c>
       <c r="F8" t="n">
-        <v>60230.20368732031</v>
+        <v>59157.22378324738</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60230.2036873203</v>
       </c>
     </row>
     <row r="9">
@@ -3411,16 +3636,19 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>49408.85910212994</v>
+        <v>45899.09268391132</v>
       </c>
       <c r="D9" t="n">
-        <v>55572.28170195853</v>
+        <v>50976.92076502365</v>
       </c>
       <c r="E9" t="n">
-        <v>63510.09396525913</v>
+        <v>46597.59387993813</v>
       </c>
       <c r="F9" t="n">
-        <v>66830.17857919437</v>
+        <v>63510.09392068678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66830.17857919435</v>
       </c>
     </row>
     <row r="10">
@@ -3431,16 +3659,19 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>46802.26852345467</v>
+        <v>45072.12794470787</v>
       </c>
       <c r="D10" t="n">
-        <v>48448.29450566801</v>
+        <v>46878.27669621176</v>
       </c>
       <c r="E10" t="n">
-        <v>50695.50359534775</v>
+        <v>45925.45167636871</v>
       </c>
       <c r="F10" t="n">
-        <v>50548.07375872935</v>
+        <v>50695.50354242595</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50548.07375872936</v>
       </c>
     </row>
     <row r="11">
@@ -3451,15 +3682,18 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>45251.03017878532</v>
+        <v>48392.55095112324</v>
       </c>
       <c r="D11" t="n">
-        <v>42789.16379628045</v>
+        <v>46999.39898954239</v>
       </c>
       <c r="E11" t="n">
-        <v>39677.36852016934</v>
+        <v>51187.59668731689</v>
       </c>
       <c r="F11" t="n">
+        <v>39677.36847653682</v>
+      </c>
+      <c r="G11" t="n">
         <v>37873.44758048125</v>
       </c>
     </row>
@@ -3471,16 +3705,19 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>51361.90681433678</v>
+        <v>52016.47945988178</v>
       </c>
       <c r="D12" t="n">
-        <v>48395.98849983329</v>
+        <v>50006.00147701261</v>
       </c>
       <c r="E12" t="n">
-        <v>44218.51503998814</v>
+        <v>52107.66425561905</v>
       </c>
       <c r="F12" t="n">
-        <v>45526.35421507466</v>
+        <v>44218.51501218921</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45526.35421507467</v>
       </c>
     </row>
     <row r="13">
@@ -3491,15 +3728,18 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>53113.32452821732</v>
+        <v>49771.24636650085</v>
       </c>
       <c r="D13" t="n">
-        <v>51686.09027953353</v>
+        <v>49773.77182576601</v>
       </c>
       <c r="E13" t="n">
-        <v>49425.17397693053</v>
+        <v>49783.92028403282</v>
       </c>
       <c r="F13" t="n">
+        <v>49425.17395135095</v>
+      </c>
+      <c r="G13" t="n">
         <v>52090.65435392671</v>
       </c>
     </row>
@@ -3511,15 +3751,18 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>52708.29174733162</v>
+        <v>52696.0721988678</v>
       </c>
       <c r="D14" t="n">
-        <v>56000.79213078883</v>
+        <v>54948.00689238343</v>
       </c>
       <c r="E14" t="n">
-        <v>58624.30191217755</v>
+        <v>53137.06717419624</v>
       </c>
       <c r="F14" t="n">
+        <v>58624.3018727101</v>
+      </c>
+      <c r="G14" t="n">
         <v>73531.46088877431</v>
       </c>
     </row>
@@ -3531,15 +3774,18 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>53808.22242856026</v>
+        <v>51440.23333787918</v>
       </c>
       <c r="D15" t="n">
-        <v>51908.55376297646</v>
+        <v>50580.99982934283</v>
       </c>
       <c r="E15" t="n">
-        <v>49309.96453764298</v>
+        <v>50613.66337835789</v>
       </c>
       <c r="F15" t="n">
+        <v>49309.96449140414</v>
+      </c>
+      <c r="G15" t="n">
         <v>49521.52881513714</v>
       </c>
     </row>
@@ -3551,15 +3797,18 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>49521.65808546543</v>
+        <v>52580.21181082726</v>
       </c>
       <c r="D16" t="n">
-        <v>47925.57122278701</v>
+        <v>49864.73829594535</v>
       </c>
       <c r="E16" t="n">
-        <v>45443.99201668979</v>
+        <v>50086.38110995293</v>
       </c>
       <c r="F16" t="n">
+        <v>45443.99197162706</v>
+      </c>
+      <c r="G16" t="n">
         <v>48044.50268231743</v>
       </c>
     </row>
@@ -3574,7 +3823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3590,20 +3839,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -3614,15 +3868,18 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33122.44143602252</v>
+        <v>33242.37756770849</v>
       </c>
       <c r="C2" t="n">
-        <v>36743.85855738101</v>
+        <v>35320.47517095509</v>
       </c>
       <c r="D2" t="n">
-        <v>42768.83445109156</v>
+        <v>32788.27028425038</v>
       </c>
       <c r="E2" t="n">
+        <v>42768.83444922843</v>
+      </c>
+      <c r="F2" t="n">
         <v>33664.51896821272</v>
       </c>
     </row>
@@ -3631,15 +3888,18 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33586.49573874474</v>
+        <v>33388.80780571699</v>
       </c>
       <c r="C3" t="n">
-        <v>31842.92033823795</v>
+        <v>32083.29764050231</v>
       </c>
       <c r="D3" t="n">
-        <v>29366.85274795779</v>
+        <v>32661.63234771788</v>
       </c>
       <c r="E3" t="n">
+        <v>29366.85274213152</v>
+      </c>
+      <c r="F3" t="n">
         <v>30300.21953445172</v>
       </c>
     </row>
@@ -3648,15 +3908,18 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>33380.91577613354</v>
+        <v>33600.90289062262</v>
       </c>
       <c r="C4" t="n">
-        <v>32837.27974464652</v>
+        <v>33113.44725209372</v>
       </c>
       <c r="D4" t="n">
-        <v>31940.08527679042</v>
+        <v>33357.22289583087</v>
       </c>
       <c r="E4" t="n">
+        <v>31940.08526850851</v>
+      </c>
+      <c r="F4" t="n">
         <v>33247.85434848179</v>
       </c>
     </row>
@@ -3665,15 +3928,18 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>35040.3192024529</v>
+        <v>33120.78796198964</v>
       </c>
       <c r="C5" t="n">
-        <v>35873.9824482395</v>
+        <v>34428.4705634478</v>
       </c>
       <c r="D5" t="n">
-        <v>37050.35985801607</v>
+        <v>33871.03748220205</v>
       </c>
       <c r="E5" t="n">
+        <v>37050.35984676608</v>
+      </c>
+      <c r="F5" t="n">
         <v>36665.13230255936</v>
       </c>
     </row>
@@ -3682,15 +3948,18 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33262.28049588203</v>
+        <v>33337.68641859293</v>
       </c>
       <c r="C6" t="n">
-        <v>35735.05278567791</v>
+        <v>35083.20719322145</v>
       </c>
       <c r="D6" t="n">
-        <v>39126.24739941274</v>
+        <v>33917.15597447753</v>
       </c>
       <c r="E6" t="n">
+        <v>39126.24738652547</v>
+      </c>
+      <c r="F6" t="n">
         <v>38780.61773097503</v>
       </c>
     </row>
@@ -3699,15 +3968,18 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>36664.74582532048</v>
+        <v>36594.78431650996</v>
       </c>
       <c r="C7" t="n">
-        <v>33713.64072945799</v>
+        <v>34481.33190677183</v>
       </c>
       <c r="D7" t="n">
-        <v>30000.76528226981</v>
+        <v>35841.59232369065</v>
       </c>
       <c r="E7" t="n">
+        <v>30000.76527183234</v>
+      </c>
+      <c r="F7" t="n">
         <v>27697.69541809021</v>
       </c>
     </row>
@@ -3716,15 +3988,18 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>40048.36708211899</v>
+        <v>38224.20692005754</v>
       </c>
       <c r="C8" t="n">
-        <v>32372.2993316998</v>
+        <v>33403.30573257162</v>
       </c>
       <c r="D8" t="n">
-        <v>22040.15178163605</v>
+        <v>36909.89063611627</v>
       </c>
       <c r="E8" t="n">
+        <v>22040.15177370069</v>
+      </c>
+      <c r="F8" t="n">
         <v>21529.76843322252</v>
       </c>
     </row>
@@ -3733,15 +4008,18 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39982.13823661208</v>
+        <v>39848.61181268096</v>
       </c>
       <c r="C9" t="n">
-        <v>34783.17415045056</v>
+        <v>35537.19439952885</v>
       </c>
       <c r="D9" t="n">
-        <v>27946.81746954036</v>
+        <v>36865.3633903563</v>
       </c>
       <c r="E9" t="n">
+        <v>27946.81746304931</v>
+      </c>
+      <c r="F9" t="n">
         <v>26288.83112180295</v>
       </c>
     </row>
@@ -3750,15 +4028,18 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>36167.19632670283</v>
+        <v>37448.24854552746</v>
       </c>
       <c r="C10" t="n">
-        <v>35394.65827647252</v>
+        <v>35370.20022715076</v>
       </c>
       <c r="D10" t="n">
-        <v>35149.54351735482</v>
+        <v>33983.1517137289</v>
       </c>
       <c r="E10" t="n">
+        <v>35149.54351236922</v>
+      </c>
+      <c r="F10" t="n">
         <v>28642.65247217976</v>
       </c>
     </row>
@@ -3767,15 +4048,18 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>33019.72948604822</v>
+        <v>31998.09292200208</v>
       </c>
       <c r="C11" t="n">
-        <v>34803.78587642116</v>
+        <v>33978.15428507105</v>
       </c>
       <c r="D11" t="n">
-        <v>37682.11272238519</v>
+        <v>33633.98521187901</v>
       </c>
       <c r="E11" t="n">
+        <v>37682.11271637251</v>
+      </c>
+      <c r="F11" t="n">
         <v>33926.55001114417</v>
       </c>
     </row>
@@ -3784,15 +4068,18 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32830.85909345746</v>
+        <v>32742.34341321886</v>
       </c>
       <c r="C12" t="n">
-        <v>32363.79775091053</v>
+        <v>32748.4301222464</v>
       </c>
       <c r="D12" t="n">
-        <v>32308.32897905019</v>
+        <v>33528.50858220458</v>
       </c>
       <c r="E12" t="n">
+        <v>32308.32897529986</v>
+      </c>
+      <c r="F12" t="n">
         <v>27621.21806516847</v>
       </c>
     </row>
@@ -3801,15 +4088,18 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>35193.6962044239</v>
+        <v>35440.03914186358</v>
       </c>
       <c r="C13" t="n">
-        <v>33213.66093697232</v>
+        <v>34119.54126220142</v>
       </c>
       <c r="D13" t="n">
-        <v>31659.65275004424</v>
+        <v>35448.23341938853</v>
       </c>
       <c r="E13" t="n">
+        <v>31659.65275139109</v>
+      </c>
+      <c r="F13" t="n">
         <v>22502.22173637916</v>
       </c>
     </row>
@@ -3818,15 +4108,18 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>38105.46693953872</v>
+        <v>39030.37329718471</v>
       </c>
       <c r="C14" t="n">
-        <v>38892.27236642299</v>
+        <v>38560.28721488553</v>
       </c>
       <c r="D14" t="n">
-        <v>41569.48720113581</v>
+        <v>37063.39703181386</v>
       </c>
       <c r="E14" t="n">
+        <v>41569.48720061951</v>
+      </c>
+      <c r="F14" t="n">
         <v>28477.76420144224</v>
       </c>
     </row>
@@ -3835,15 +4128,18 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>37340.07045140862</v>
+        <v>36558.74668204784</v>
       </c>
       <c r="C15" t="n">
-        <v>33163.61083095647</v>
+        <v>34299.66049995779</v>
       </c>
       <c r="D15" t="n">
-        <v>28167.50549800204</v>
+        <v>37032.03337532282</v>
       </c>
       <c r="E15" t="n">
+        <v>28167.50549352261</v>
+      </c>
+      <c r="F15" t="n">
         <v>22809.00448685582</v>
       </c>
     </row>
@@ -3852,16 +4148,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39561.10784184933</v>
+        <v>39549.12262445688</v>
       </c>
       <c r="C16" t="n">
-        <v>35568.24017612698</v>
+        <v>37208.74302732129</v>
       </c>
       <c r="D16" t="n">
-        <v>30740.73802683467</v>
+        <v>40045.52239561081</v>
       </c>
       <c r="E16" t="n">
-        <v>26032.21215153513</v>
+        <v>30740.7380198996</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26032.21215153514</v>
       </c>
     </row>
     <row r="17">
@@ -3869,16 +4168,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>37715.32114815712</v>
+        <v>37359.02613848448</v>
       </c>
       <c r="C17" t="n">
-        <v>36647.10169595965</v>
+        <v>36941.93240994729</v>
       </c>
       <c r="D17" t="n">
-        <v>35851.01260806032</v>
+        <v>37823.17822730541</v>
       </c>
       <c r="E17" t="n">
-        <v>30567.10141821986</v>
+        <v>35851.01259815718</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30567.10141821985</v>
       </c>
     </row>
     <row r="18">
@@ -3886,15 +4188,18 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>37494.31468766928</v>
+        <v>39107.03562310338</v>
       </c>
       <c r="C18" t="n">
-        <v>37424.30784511372</v>
+        <v>38175.15785036294</v>
       </c>
       <c r="D18" t="n">
-        <v>37926.900149457</v>
+        <v>37848.33592361212</v>
       </c>
       <c r="E18" t="n">
+        <v>37926.90013791656</v>
+      </c>
+      <c r="F18" t="n">
         <v>33074.34895645222</v>
       </c>
     </row>
@@ -3903,15 +4208,18 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>43917.89931631088</v>
+        <v>43671.39932847023</v>
       </c>
       <c r="C19" t="n">
-        <v>37125.71673252687</v>
+        <v>39524.61008752971</v>
       </c>
       <c r="D19" t="n">
-        <v>28801.41803231407</v>
+        <v>43881.90217912197</v>
       </c>
       <c r="E19" t="n">
+        <v>28801.41802322343</v>
+      </c>
+      <c r="F19" t="n">
         <v>21704.34035468017</v>
       </c>
     </row>
@@ -3920,15 +4228,18 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>44023.2949514389</v>
+        <v>44740.26657819748</v>
       </c>
       <c r="C20" t="n">
-        <v>33828.95816597869</v>
+        <v>37658.89355506893</v>
       </c>
       <c r="D20" t="n">
-        <v>20840.80453168031</v>
+        <v>43463.2512460947</v>
       </c>
       <c r="E20" t="n">
+        <v>20840.80452509178</v>
+      </c>
+      <c r="F20" t="n">
         <v>14203.76924652807</v>
       </c>
     </row>
@@ -3937,15 +4248,18 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>40385.4169973731</v>
+        <v>45638.12470829487</v>
       </c>
       <c r="C21" t="n">
-        <v>34200.6129874476</v>
+        <v>40119.97373501928</v>
       </c>
       <c r="D21" t="n">
-        <v>26747.47021958463</v>
+        <v>45062.76908272505</v>
       </c>
       <c r="E21" t="n">
+        <v>26747.4702144404</v>
+      </c>
+      <c r="F21" t="n">
         <v>19255.29824495617</v>
       </c>
     </row>
@@ -3954,16 +4268,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>43291.6633117795</v>
+        <v>42906.82661414146</v>
       </c>
       <c r="C22" t="n">
-        <v>38748.73095380748</v>
+        <v>39624.77262947056</v>
       </c>
       <c r="D22" t="n">
-        <v>33950.19626739908</v>
+        <v>41482.14242011309</v>
       </c>
       <c r="E22" t="n">
-        <v>22955.66076581013</v>
+        <v>33950.19626376031</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22955.66076581014</v>
       </c>
     </row>
     <row r="23">
@@ -3971,15 +4288,18 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>38706.74575865269</v>
+        <v>39119.16307482123</v>
       </c>
       <c r="C23" t="n">
-        <v>37303.72988421988</v>
+        <v>37492.46845019917</v>
       </c>
       <c r="D23" t="n">
-        <v>36482.76547242946</v>
+        <v>37380.54105567932</v>
       </c>
       <c r="E23" t="n">
+        <v>36482.76546776359</v>
+      </c>
+      <c r="F23" t="n">
         <v>27718.15186696986</v>
       </c>
     </row>
@@ -3988,15 +4308,18 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>36614.37808257341</v>
+        <v>36986.03044843674</v>
       </c>
       <c r="C24" t="n">
-        <v>33714.60723665309</v>
+        <v>35202.3815970595</v>
       </c>
       <c r="D24" t="n">
-        <v>31108.98172909446</v>
+        <v>37417.6760674715</v>
       </c>
       <c r="E24" t="n">
+        <v>31108.98172669094</v>
+      </c>
+      <c r="F24" t="n">
         <v>20376.57660431757</v>
       </c>
     </row>
@@ -4005,15 +4328,18 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>37821.95046851039</v>
+        <v>37302.95519438386</v>
       </c>
       <c r="C25" t="n">
-        <v>33939.95291038144</v>
+        <v>35428.15293434522</v>
       </c>
       <c r="D25" t="n">
-        <v>30460.30550008851</v>
+        <v>38553.35887929797</v>
       </c>
       <c r="E25" t="n">
+        <v>30460.30550278218</v>
+      </c>
+      <c r="F25" t="n">
         <v>16022.94496392362</v>
       </c>
     </row>
@@ -4022,15 +4348,18 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>41548.00086373091</v>
+        <v>39666.13900151849</v>
       </c>
       <c r="C26" t="n">
-        <v>40153.47287414941</v>
+        <v>38986.90887928051</v>
       </c>
       <c r="D26" t="n">
-        <v>40370.13995118008</v>
+        <v>38867.0932303071</v>
       </c>
       <c r="E26" t="n">
+        <v>40370.1399520106</v>
+      </c>
+      <c r="F26" t="n">
         <v>23270.38047470125</v>
       </c>
     </row>
@@ -4039,15 +4368,18 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>38779.52726051211</v>
+        <v>38914.08685877919</v>
       </c>
       <c r="C27" t="n">
-        <v>33151.85244383308</v>
+        <v>36386.97888618641</v>
       </c>
       <c r="D27" t="n">
-        <v>26968.15824804631</v>
+        <v>41895.05064225197</v>
       </c>
       <c r="E27" t="n">
+        <v>26968.15824491369</v>
+      </c>
+      <c r="F27" t="n">
         <v>15292.88215569458</v>
       </c>
     </row>
@@ -4056,16 +4388,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>40951.35947626829</v>
+        <v>40237.20092839003</v>
       </c>
       <c r="C28" t="n">
-        <v>35544.94750518959</v>
+        <v>36998.33784480434</v>
       </c>
       <c r="D28" t="n">
-        <v>29541.39077687894</v>
+        <v>40205.17548719049</v>
       </c>
       <c r="E28" t="n">
-        <v>18836.77849978202</v>
+        <v>29541.39077129069</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18836.77849978203</v>
       </c>
     </row>
     <row r="29">
@@ -4073,16 +4408,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37286.287109375</v>
+        <v>37244.54232260585</v>
       </c>
       <c r="C29" t="n">
-        <v>35635.98693361854</v>
+        <v>36220.44713131137</v>
       </c>
       <c r="D29" t="n">
-        <v>34651.66535810458</v>
+        <v>37287.64623737335</v>
       </c>
       <c r="E29" t="n">
-        <v>24493.84823356891</v>
+        <v>34651.66534954826</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24493.84823356892</v>
       </c>
     </row>
     <row r="30">
@@ -4090,15 +4428,18 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>33249.07048290968</v>
+        <v>32208.11029924452</v>
       </c>
       <c r="C30" t="n">
-        <v>34236.98706669569</v>
+        <v>33038.49676926696</v>
       </c>
       <c r="D30" t="n">
-        <v>36727.55289950126</v>
+        <v>32037.42861488461</v>
       </c>
       <c r="E30" t="n">
+        <v>36727.55288930765</v>
+      </c>
+      <c r="F30" t="n">
         <v>27364.17225212542</v>
       </c>
     </row>
@@ -4107,15 +4448,18 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>34701.68495485187</v>
+        <v>34467.30846777558</v>
       </c>
       <c r="C31" t="n">
-        <v>31062.81961630197</v>
+        <v>32947.55744410744</v>
       </c>
       <c r="D31" t="n">
-        <v>27602.07078235833</v>
+        <v>36486.37212839723</v>
       </c>
       <c r="E31" t="n">
+        <v>27602.07077461451</v>
+      </c>
+      <c r="F31" t="n">
         <v>15685.65458531638</v>
       </c>
     </row>
@@ -4124,15 +4468,18 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>33986.58114135265</v>
+        <v>34008.52671247721</v>
       </c>
       <c r="C32" t="n">
-        <v>27225.04942183693</v>
+        <v>30459.41802240694</v>
       </c>
       <c r="D32" t="n">
-        <v>19641.45728172457</v>
+        <v>36050.55232700706</v>
       </c>
       <c r="E32" t="n">
+        <v>19641.45727648286</v>
+      </c>
+      <c r="F32" t="n">
         <v>6864.89963429511</v>
       </c>
     </row>
@@ -4141,15 +4488,18 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33934.25866436958</v>
+        <v>33514.29897800088</v>
       </c>
       <c r="C33" t="n">
-        <v>29676.30359279767</v>
+        <v>32164.41895807705</v>
       </c>
       <c r="D33" t="n">
-        <v>25548.12296962889</v>
+        <v>36961.99185970426</v>
       </c>
       <c r="E33" t="n">
+        <v>25548.12296583148</v>
+      </c>
+      <c r="F33" t="n">
         <v>12243.16008452258</v>
       </c>
     </row>
@@ -4158,15 +4508,18 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>36709.55655199289</v>
+        <v>32376.69007635117</v>
       </c>
       <c r="C34" t="n">
-        <v>34219.05218409226</v>
+        <v>33032.29275805791</v>
       </c>
       <c r="D34" t="n">
-        <v>32750.84901744334</v>
+        <v>35395.27977758646</v>
       </c>
       <c r="E34" t="n">
+        <v>32750.84901515139</v>
+      </c>
+      <c r="F34" t="n">
         <v>17281.27760985001</v>
       </c>
     </row>
@@ -4175,15 +4528,18 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>30209.15797959268</v>
+        <v>29561.1611110121</v>
       </c>
       <c r="C35" t="n">
-        <v>31643.26913679412</v>
+        <v>30871.19837233481</v>
       </c>
       <c r="D35" t="n">
-        <v>35283.41822247372</v>
+        <v>30250.92745982111</v>
       </c>
       <c r="E35" t="n">
+        <v>35283.41821915468</v>
+      </c>
+      <c r="F35" t="n">
         <v>21490.29922244512</v>
       </c>
     </row>
@@ -4192,15 +4548,18 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29978.2262300849</v>
+        <v>29993.82163122296</v>
       </c>
       <c r="C36" t="n">
-        <v>29071.68720473209</v>
+        <v>29003.89982079103</v>
       </c>
       <c r="D36" t="n">
-        <v>29909.63447913872</v>
+        <v>28886.03551420569</v>
       </c>
       <c r="E36" t="n">
+        <v>29909.63447808203</v>
+      </c>
+      <c r="F36" t="n">
         <v>13131.1951432342</v>
       </c>
     </row>
@@ -4209,16 +4568,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>33913.16748693585</v>
+        <v>34325.08006879687</v>
       </c>
       <c r="C37" t="n">
-        <v>30907.22451248296</v>
+        <v>31302.83998643297</v>
       </c>
       <c r="D37" t="n">
-        <v>29260.95825013277</v>
+        <v>31542.46847240627</v>
       </c>
       <c r="E37" t="n">
-        <v>9567.939870700746</v>
+        <v>29260.95825417326</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9567.939870700742</v>
       </c>
     </row>
     <row r="38">
@@ -4226,15 +4588,18 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32785.1031011641</v>
+        <v>32034.16216409206</v>
       </c>
       <c r="C38" t="n">
-        <v>34392.62109998952</v>
+        <v>33555.22263343854</v>
       </c>
       <c r="D38" t="n">
-        <v>39170.79270122434</v>
+        <v>32952.35585176945</v>
       </c>
       <c r="E38" t="n">
+        <v>39170.79270340168</v>
+      </c>
+      <c r="F38" t="n">
         <v>18041.17629654186</v>
       </c>
     </row>
@@ -4243,15 +4608,18 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>32751.76248632371</v>
+        <v>34722.01656147838</v>
       </c>
       <c r="C39" t="n">
-        <v>28843.49155750326</v>
+        <v>30983.96868040308</v>
       </c>
       <c r="D39" t="n">
-        <v>25768.81099809057</v>
+        <v>32688.36449898779</v>
       </c>
       <c r="E39" t="n">
+        <v>25768.81099630478</v>
+      </c>
+      <c r="F39" t="n">
         <v>7752.963213589366</v>
       </c>
     </row>

--- a/fcst_results/no_covid_series_HOU-Int_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Int_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33242.37756770849</v>
+        <v>33013.61341005564</v>
       </c>
       <c r="C2" t="n">
-        <v>32788.27028425038</v>
+        <v>33801.9491341114</v>
       </c>
       <c r="D2" t="n">
-        <v>42768.83444922843</v>
+        <v>42768.83445109156</v>
       </c>
       <c r="E2" t="n">
         <v>33664.51896821272</v>
       </c>
       <c r="F2" t="n">
-        <v>35320.47517095509</v>
+        <v>35584.50415306971</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33388.80780571699</v>
+        <v>33062.24174553156</v>
       </c>
       <c r="C3" t="n">
-        <v>32661.63234771788</v>
+        <v>32212.02618801594</v>
       </c>
       <c r="D3" t="n">
-        <v>29366.85274213152</v>
+        <v>29366.85274795779</v>
       </c>
       <c r="E3" t="n">
         <v>30300.21953445172</v>
       </c>
       <c r="F3" t="n">
-        <v>32083.29764050231</v>
+        <v>31803.75657169494</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>33600.90289062262</v>
+        <v>32644.231854707</v>
       </c>
       <c r="C4" t="n">
-        <v>33357.22289583087</v>
+        <v>34468.53622657061</v>
       </c>
       <c r="D4" t="n">
-        <v>31940.08526850851</v>
+        <v>31940.08527679042</v>
       </c>
       <c r="E4" t="n">
         <v>33247.85434848179</v>
       </c>
       <c r="F4" t="n">
-        <v>33113.44725209372</v>
+        <v>33160.79171375209</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>33120.78796198964</v>
+        <v>35210.29119679332</v>
       </c>
       <c r="C5" t="n">
-        <v>33871.03748220205</v>
+        <v>32155.43766900897</v>
       </c>
       <c r="D5" t="n">
-        <v>37050.35984676608</v>
+        <v>37050.35985801607</v>
       </c>
       <c r="E5" t="n">
         <v>36665.13230255936</v>
       </c>
       <c r="F5" t="n">
-        <v>34428.4705634478</v>
+        <v>34582.18553642182</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33337.68641859293</v>
+        <v>33747.27781528234</v>
       </c>
       <c r="C6" t="n">
-        <v>33917.15597447753</v>
+        <v>33416.43089699745</v>
       </c>
       <c r="D6" t="n">
-        <v>39126.24738652547</v>
+        <v>39126.24739941274</v>
       </c>
       <c r="E6" t="n">
         <v>38780.61773097503</v>
       </c>
       <c r="F6" t="n">
-        <v>35083.20719322145</v>
+        <v>35046.40897775679</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>36594.78431650996</v>
+        <v>35803.7708337307</v>
       </c>
       <c r="C7" t="n">
-        <v>35841.59232369065</v>
+        <v>35918.5608485043</v>
       </c>
       <c r="D7" t="n">
-        <v>30000.76527183234</v>
+        <v>30000.76528226981</v>
       </c>
       <c r="E7" t="n">
         <v>27697.69541809021</v>
       </c>
       <c r="F7" t="n">
-        <v>34481.33190677183</v>
+        <v>34224.05974980894</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>38224.20692005754</v>
+        <v>37066.54396626353</v>
       </c>
       <c r="C8" t="n">
-        <v>36909.89063611627</v>
+        <v>36360.64686211944</v>
       </c>
       <c r="D8" t="n">
-        <v>22040.15177370069</v>
+        <v>22040.15178163605</v>
       </c>
       <c r="E8" t="n">
         <v>21529.76843322252</v>
       </c>
       <c r="F8" t="n">
-        <v>33403.30573257162</v>
+        <v>32798.04969920164</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39848.61181268096</v>
+        <v>39855.34423741698</v>
       </c>
       <c r="C9" t="n">
-        <v>36865.3633903563</v>
+        <v>36992.72632685304</v>
       </c>
       <c r="D9" t="n">
-        <v>27946.81746304931</v>
+        <v>27946.81746954036</v>
       </c>
       <c r="E9" t="n">
         <v>26288.83112180295</v>
       </c>
       <c r="F9" t="n">
-        <v>35537.19439952885</v>
+        <v>35597.42632879813</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>37448.24854552746</v>
+        <v>36738.54173448682</v>
       </c>
       <c r="C10" t="n">
-        <v>33983.1517137289</v>
+        <v>36049.18134614825</v>
       </c>
       <c r="D10" t="n">
-        <v>35149.54351236922</v>
+        <v>35149.54351735482</v>
       </c>
       <c r="E10" t="n">
         <v>28642.65247217976</v>
       </c>
       <c r="F10" t="n">
-        <v>35370.20022715076</v>
+        <v>35846.38231170209</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>31998.09292200208</v>
+        <v>33084.06088614464</v>
       </c>
       <c r="C11" t="n">
-        <v>33633.98521187901</v>
+        <v>31615.88805325329</v>
       </c>
       <c r="D11" t="n">
-        <v>37682.11271637251</v>
+        <v>37682.11272238519</v>
       </c>
       <c r="E11" t="n">
         <v>33926.55001114417</v>
       </c>
       <c r="F11" t="n">
-        <v>33978.15428507105</v>
+        <v>33648.86611842288</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32742.34341321886</v>
+        <v>32283.37250602245</v>
       </c>
       <c r="C12" t="n">
-        <v>33528.50858220458</v>
+        <v>33549.23923513293</v>
       </c>
       <c r="D12" t="n">
-        <v>32308.32897529986</v>
+        <v>32308.32897905019</v>
       </c>
       <c r="E12" t="n">
         <v>27621.21806516847</v>
       </c>
       <c r="F12" t="n">
-        <v>32748.4301222464</v>
+        <v>32588.90436160184</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>35440.03914186358</v>
+        <v>36747.61806237698</v>
       </c>
       <c r="C13" t="n">
-        <v>35448.23341938853</v>
+        <v>36465.32046049833</v>
       </c>
       <c r="D13" t="n">
-        <v>31659.65275139109</v>
+        <v>31659.65275004424</v>
       </c>
       <c r="E13" t="n">
         <v>22502.22173637916</v>
       </c>
       <c r="F13" t="n">
-        <v>34119.54126220142</v>
+        <v>34982.36186894637</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>39030.37329718471</v>
+        <v>36726.66516831517</v>
       </c>
       <c r="C14" t="n">
-        <v>37063.39703181386</v>
+        <v>37206.45216780901</v>
       </c>
       <c r="D14" t="n">
-        <v>41569.48720061951</v>
+        <v>41569.48720113581</v>
       </c>
       <c r="E14" t="n">
         <v>28477.76420144224</v>
       </c>
       <c r="F14" t="n">
-        <v>38560.28721488553</v>
+        <v>37744.59571479756</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>36558.74668204784</v>
+        <v>36389.15200376511</v>
       </c>
       <c r="C15" t="n">
-        <v>37032.03337532282</v>
+        <v>36452.07488894463</v>
       </c>
       <c r="D15" t="n">
-        <v>28167.50549352261</v>
+        <v>28167.50549800204</v>
       </c>
       <c r="E15" t="n">
         <v>22809.00448685582</v>
       </c>
       <c r="F15" t="n">
-        <v>34299.66049995779</v>
+        <v>34044.01283709541</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39549.12262445688</v>
+        <v>39940.4793830812</v>
       </c>
       <c r="C16" t="n">
-        <v>40045.52239561081</v>
+        <v>38274.57071185112</v>
       </c>
       <c r="D16" t="n">
-        <v>30740.7380198996</v>
+        <v>30740.73802683467</v>
       </c>
       <c r="E16" t="n">
-        <v>26032.21215153514</v>
+        <v>26032.21215153513</v>
       </c>
       <c r="F16" t="n">
-        <v>37208.74302732129</v>
+        <v>36732.2369843685</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>37359.02613848448</v>
+        <v>36698.40399804711</v>
       </c>
       <c r="C17" t="n">
-        <v>37823.17822730541</v>
+        <v>38846.17787030339</v>
       </c>
       <c r="D17" t="n">
-        <v>35851.01259815718</v>
+        <v>35851.01260806032</v>
       </c>
       <c r="E17" t="n">
-        <v>30567.10141821985</v>
+        <v>30567.10141821986</v>
       </c>
       <c r="F17" t="n">
-        <v>36941.93240994729</v>
+        <v>37070.5654590563</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>39107.03562310338</v>
+        <v>40334.42796719074</v>
       </c>
       <c r="C18" t="n">
-        <v>37848.33592361212</v>
+        <v>40397.32615891099</v>
       </c>
       <c r="D18" t="n">
-        <v>37926.90013791656</v>
+        <v>37926.900149457</v>
       </c>
       <c r="E18" t="n">
         <v>33074.34895645222</v>
       </c>
       <c r="F18" t="n">
-        <v>38175.15785036294</v>
+        <v>39552.58075000137</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>43671.39932847023</v>
+        <v>44650.48708671331</v>
       </c>
       <c r="C19" t="n">
-        <v>43881.90217912197</v>
+        <v>40699.11677753925</v>
       </c>
       <c r="D19" t="n">
-        <v>28801.41802322343</v>
+        <v>28801.41803231407</v>
       </c>
       <c r="E19" t="n">
         <v>21704.34035468017</v>
       </c>
       <c r="F19" t="n">
-        <v>39524.61008752971</v>
+        <v>38766.83228456085</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>44740.26657819748</v>
+        <v>45375.39025259018</v>
       </c>
       <c r="C20" t="n">
-        <v>43463.2512460947</v>
+        <v>44195.05080127716</v>
       </c>
       <c r="D20" t="n">
-        <v>20840.80452509178</v>
+        <v>20840.80453168031</v>
       </c>
       <c r="E20" t="n">
         <v>14203.76924652807</v>
       </c>
       <c r="F20" t="n">
-        <v>37658.89355506893</v>
+        <v>38199.33722449026</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>45638.12470829487</v>
+        <v>44026.04086410999</v>
       </c>
       <c r="C21" t="n">
-        <v>45062.76908272505</v>
+        <v>45961.47469234467</v>
       </c>
       <c r="D21" t="n">
-        <v>26747.4702144404</v>
+        <v>26747.47021958463</v>
       </c>
       <c r="E21" t="n">
         <v>19255.29824495617</v>
       </c>
       <c r="F21" t="n">
-        <v>40119.97373501928</v>
+        <v>39877.05676489169</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>42906.82661414146</v>
+        <v>45108.02330392599</v>
       </c>
       <c r="C22" t="n">
-        <v>41482.14242011309</v>
+        <v>41862.62319153547</v>
       </c>
       <c r="D22" t="n">
-        <v>33950.19626376031</v>
+        <v>33950.19626739908</v>
       </c>
       <c r="E22" t="n">
-        <v>22955.66076581014</v>
+        <v>22955.66076581013</v>
       </c>
       <c r="F22" t="n">
-        <v>39624.77262947056</v>
+        <v>40595.14870672981</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>39119.16307482123</v>
+        <v>38607.81684663892</v>
       </c>
       <c r="C23" t="n">
-        <v>37380.54105567932</v>
+        <v>38518.59641507268</v>
       </c>
       <c r="D23" t="n">
-        <v>36482.76546776359</v>
+        <v>36482.76547242946</v>
       </c>
       <c r="E23" t="n">
         <v>27718.15186696986</v>
       </c>
       <c r="F23" t="n">
-        <v>37492.46845019917</v>
+        <v>37713.60227533646</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>36986.03044843674</v>
+        <v>39277.11429318786</v>
       </c>
       <c r="C24" t="n">
-        <v>37417.6760674715</v>
+        <v>38871.08468106389</v>
       </c>
       <c r="D24" t="n">
-        <v>31108.98172669094</v>
+        <v>31108.98172909446</v>
       </c>
       <c r="E24" t="n">
         <v>20376.57660431757</v>
       </c>
       <c r="F24" t="n">
-        <v>35202.3815970595</v>
+        <v>36594.66761276348</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>37302.95519438386</v>
+        <v>39322.63816696405</v>
       </c>
       <c r="C25" t="n">
-        <v>38553.35887929797</v>
+        <v>38896.26015666127</v>
       </c>
       <c r="D25" t="n">
-        <v>30460.30550278218</v>
+        <v>30460.30550008851</v>
       </c>
       <c r="E25" t="n">
         <v>16022.94496392362</v>
       </c>
       <c r="F25" t="n">
-        <v>35428.15293434522</v>
+        <v>36322.74566952667</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>39666.13900151849</v>
+        <v>41342.80019265413</v>
       </c>
       <c r="C26" t="n">
-        <v>38867.0932303071</v>
+        <v>40479.60575294495</v>
       </c>
       <c r="D26" t="n">
-        <v>40370.1399520106</v>
+        <v>40370.13995118008</v>
       </c>
       <c r="E26" t="n">
         <v>23270.38047470125</v>
       </c>
       <c r="F26" t="n">
-        <v>38986.90887928051</v>
+        <v>40192.94320315283</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>38914.08685877919</v>
+        <v>39356.95713666081</v>
       </c>
       <c r="C27" t="n">
-        <v>41895.05064225197</v>
+        <v>40381.91842806339</v>
       </c>
       <c r="D27" t="n">
-        <v>26968.15824491369</v>
+        <v>26968.15824804631</v>
       </c>
       <c r="E27" t="n">
         <v>15292.88215569458</v>
       </c>
       <c r="F27" t="n">
-        <v>36386.97888618641</v>
+        <v>36037.49665229886</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>40237.20092839003</v>
+        <v>39077.86277031898</v>
       </c>
       <c r="C28" t="n">
-        <v>40205.17548719049</v>
+        <v>38772.39480173588</v>
       </c>
       <c r="D28" t="n">
-        <v>29541.39077129069</v>
+        <v>29541.39077687894</v>
       </c>
       <c r="E28" t="n">
-        <v>18836.77849978203</v>
+        <v>18836.77849978202</v>
       </c>
       <c r="F28" t="n">
-        <v>36998.33784480434</v>
+        <v>36068.82604188978</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37244.54232260585</v>
+        <v>37226.34126764536</v>
       </c>
       <c r="C29" t="n">
-        <v>37287.64623737335</v>
+        <v>33268.41928985715</v>
       </c>
       <c r="D29" t="n">
-        <v>34651.66534954826</v>
+        <v>34651.66535810458</v>
       </c>
       <c r="E29" t="n">
-        <v>24493.84823356892</v>
+        <v>24493.84823356891</v>
       </c>
       <c r="F29" t="n">
-        <v>36220.44713131137</v>
+        <v>34766.75518973574</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>32208.11029924452</v>
+        <v>32150.00708344579</v>
       </c>
       <c r="C30" t="n">
-        <v>32037.42861488461</v>
+        <v>32887.65009883046</v>
       </c>
       <c r="D30" t="n">
-        <v>36727.55288930765</v>
+        <v>36727.55289950126</v>
       </c>
       <c r="E30" t="n">
         <v>27364.17225212542</v>
       </c>
       <c r="F30" t="n">
-        <v>33038.49676926696</v>
+        <v>33316.88317637087</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>34467.30846777558</v>
+        <v>36335.08715629578</v>
       </c>
       <c r="C31" t="n">
-        <v>36486.37212839723</v>
+        <v>33142.33152359724</v>
       </c>
       <c r="D31" t="n">
-        <v>27602.07077461451</v>
+        <v>27602.07078235833</v>
       </c>
       <c r="E31" t="n">
         <v>15685.65458531638</v>
       </c>
       <c r="F31" t="n">
-        <v>32947.55744410744</v>
+        <v>32454.85948126805</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>34008.52671247721</v>
+        <v>35940.19231882691</v>
       </c>
       <c r="C32" t="n">
-        <v>36050.55232700706</v>
+        <v>32786.81090080738</v>
       </c>
       <c r="D32" t="n">
-        <v>19641.45727648286</v>
+        <v>19641.45728172457</v>
       </c>
       <c r="E32" t="n">
         <v>6864.89963429511</v>
       </c>
       <c r="F32" t="n">
-        <v>30459.41802240694</v>
+        <v>30033.09460574553</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33514.29897800088</v>
+        <v>33746.47478398681</v>
       </c>
       <c r="C33" t="n">
-        <v>36961.99185970426</v>
+        <v>33151.67157763243</v>
       </c>
       <c r="D33" t="n">
-        <v>25548.12296583148</v>
+        <v>25548.12296962889</v>
       </c>
       <c r="E33" t="n">
         <v>12243.16008452258</v>
       </c>
       <c r="F33" t="n">
-        <v>32164.41895807705</v>
+        <v>30900.61924971186</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>32376.69007635117</v>
+        <v>33483.00742641091</v>
       </c>
       <c r="C34" t="n">
-        <v>35395.27977758646</v>
+        <v>37089.93459862471</v>
       </c>
       <c r="D34" t="n">
-        <v>32750.84901515139</v>
+        <v>32750.84901744334</v>
       </c>
       <c r="E34" t="n">
         <v>17281.27760985001</v>
       </c>
       <c r="F34" t="n">
-        <v>33032.29275805791</v>
+        <v>34068.36145947547</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>29561.1611110121</v>
+        <v>29012.09908087552</v>
       </c>
       <c r="C35" t="n">
-        <v>30250.92745982111</v>
+        <v>29824.71292021871</v>
       </c>
       <c r="D35" t="n">
-        <v>35283.41821915468</v>
+        <v>35283.41822247372</v>
       </c>
       <c r="E35" t="n">
         <v>21490.29922244512</v>
       </c>
       <c r="F35" t="n">
-        <v>30871.19837233481</v>
+        <v>30506.48313405485</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29993.82163122296</v>
+        <v>29678.97409906983</v>
       </c>
       <c r="C36" t="n">
-        <v>28886.03551420569</v>
+        <v>31335.74569649994</v>
       </c>
       <c r="D36" t="n">
-        <v>29909.63447808203</v>
+        <v>29909.63447913872</v>
       </c>
       <c r="E36" t="n">
         <v>13131.1951432342</v>
       </c>
       <c r="F36" t="n">
-        <v>29003.89982079103</v>
+        <v>29771.02265885482</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>34325.08006879687</v>
+        <v>32694.6800981313</v>
       </c>
       <c r="C37" t="n">
-        <v>31542.46847240627</v>
+        <v>31288.0073132962</v>
       </c>
       <c r="D37" t="n">
-        <v>29260.95825417326</v>
+        <v>29260.95825013277</v>
       </c>
       <c r="E37" t="n">
-        <v>9567.939870700742</v>
+        <v>9567.939870700746</v>
       </c>
       <c r="F37" t="n">
-        <v>31302.83998643297</v>
+        <v>30606.03898132042</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32034.16216409206</v>
+        <v>32675.4374730587</v>
       </c>
       <c r="C38" t="n">
-        <v>32952.35585176945</v>
+        <v>34585.90720170736</v>
       </c>
       <c r="D38" t="n">
-        <v>39170.79270340168</v>
+        <v>39170.79270122434</v>
       </c>
       <c r="E38" t="n">
         <v>18041.17629654186</v>
       </c>
       <c r="F38" t="n">
-        <v>33555.22263343854</v>
+        <v>34377.8267892252</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>34722.01656147838</v>
+        <v>33114.59286692739</v>
       </c>
       <c r="C39" t="n">
-        <v>32688.36449898779</v>
+        <v>33252.02777159214</v>
       </c>
       <c r="D39" t="n">
-        <v>25768.81099630478</v>
+        <v>25768.81099809057</v>
       </c>
       <c r="E39" t="n">
         <v>7752.963213589366</v>
       </c>
       <c r="F39" t="n">
-        <v>30983.96868040308</v>
+        <v>30600.63572689971</v>
       </c>
     </row>
   </sheetData>
@@ -1391,19 +1458,19 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>13004.72542253274</v>
+        <v>12931.48916119057</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3365390753692939</v>
+        <v>0.3362069254497715</v>
       </c>
       <c r="M2" t="n">
-        <v>11088.27149892648</v>
+        <v>11173.8636445721</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.52609606678759</v>
+        <v>-3.475262082548655</v>
       </c>
       <c r="O2" t="n">
-        <v>52580.21181082726</v>
+        <v>51485.99984848499</v>
       </c>
       <c r="P2" t="n">
         <v>32859</v>
@@ -1412,19 +1479,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>11122.21369554045</v>
+        <v>9430.870646303136</v>
       </c>
       <c r="S2" t="n">
-        <v>5671.209760462018</v>
+        <v>5584.761288456935</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1203925958453089</v>
+        <v>0.1170954060314894</v>
       </c>
       <c r="U2" t="n">
-        <v>4501.389028837514</v>
+        <v>4310.371463429443</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2994503462287087</v>
+        <v>0.3206450714246619</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1435,16 +1502,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>13004.72542253274</v>
+        <v>12931.48916119057</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3365390753692939</v>
+        <v>0.3362069254497715</v>
       </c>
       <c r="AE2" t="n">
-        <v>11088.27149892648</v>
+        <v>11173.8636445721</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.52609606678759</v>
+        <v>-3.475262082548655</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1453,28 +1520,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>50</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1482,19 +1555,19 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>12875.79514594825</v>
+        <v>12957.59272506412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.340202990269795</v>
+        <v>0.339194942855304</v>
       </c>
       <c r="M3" t="n">
-        <v>11283.29923783687</v>
+        <v>11344.09905489683</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.436796507525265</v>
+        <v>-3.493347887695109</v>
       </c>
       <c r="O3" t="n">
-        <v>49864.73829594535</v>
+        <v>51685.32820677757</v>
       </c>
       <c r="P3" t="n">
         <v>32859</v>
@@ -1503,45 +1576,39 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>8413.927806469006</v>
+        <v>11478.5752899682</v>
       </c>
       <c r="S3" t="n">
-        <v>4519.286292412201</v>
+        <v>5819.408592217365</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09629675292959927</v>
+        <v>0.1226661091530477</v>
       </c>
       <c r="U3" t="n">
-        <v>3575.100887017962</v>
+        <v>4562.948751032699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5551360539081694</v>
+        <v>0.2623587364942278</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>['lstm_reg', 'lstm', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.37402730854637806, 0.35825980005804686, 0.23371040880044983, 0.034002482595125276)</t>
-        </is>
-      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>12875.79514594825</v>
+        <v>12957.59272506412</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.340202990269795</v>
+        <v>0.339194942855304</v>
       </c>
       <c r="AE3" t="n">
-        <v>11283.29923783687</v>
+        <v>11344.09905489683</v>
       </c>
       <c r="AF3" t="n">
-        <v>-3.436796507525265</v>
+        <v>-3.493347887695109</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1550,34 +1617,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1585,19 +1646,19 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>13226.07602166571</v>
+        <v>12823.19026740352</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3407800375544844</v>
+        <v>0.3405249260766453</v>
       </c>
       <c r="M4" t="n">
-        <v>11163.30863218307</v>
+        <v>11415.39695808851</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.681482699462612</v>
+        <v>-3.400616938132285</v>
       </c>
       <c r="O4" t="n">
-        <v>50086.38110995293</v>
+        <v>50039.36620619956</v>
       </c>
       <c r="P4" t="n">
         <v>32859</v>
@@ -1606,39 +1667,45 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>11178.20335886897</v>
+        <v>8960.93143247773</v>
       </c>
       <c r="S4" t="n">
-        <v>5711.173911548645</v>
+        <v>4509.535926167139</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1184826653883773</v>
+        <v>0.09480543854694436</v>
       </c>
       <c r="U4" t="n">
-        <v>4370.806782895743</v>
+        <v>3509.139251730706</v>
       </c>
       <c r="V4" t="n">
-        <v>0.289542224949464</v>
+        <v>0.5570535722723626</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['lstm_reg', 'lstm', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>(0.37254611904971624, 0.36152097904004177, 0.23206507290572237, 0.03386782900451966)</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
-        <v>13226.07602166571</v>
+        <v>12823.19026740352</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3407800375544844</v>
+        <v>0.3405249260766453</v>
       </c>
       <c r="AE4" t="n">
-        <v>11163.30863218307</v>
+        <v>11415.39695808851</v>
       </c>
       <c r="AF4" t="n">
-        <v>-3.681482699462612</v>
+        <v>-3.400616938132285</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1678,19 +1745,19 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>14117.75860244194</v>
+        <v>14117.75863762159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3742798932167073</v>
+        <v>0.3742798941973187</v>
       </c>
       <c r="M5" t="n">
-        <v>13087.77155775971</v>
+        <v>13087.77159220715</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.333998593837488</v>
+        <v>-4.333998620420773</v>
       </c>
       <c r="O5" t="n">
-        <v>45443.99197162706</v>
+        <v>45443.99201668979</v>
       </c>
       <c r="P5" t="n">
         <v>32859</v>
@@ -1699,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>11497.9514815066</v>
+        <v>10621.35778919494</v>
       </c>
       <c r="S5" t="n">
-        <v>6853.20029904793</v>
+        <v>6853.200297334472</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1182226402906901</v>
+        <v>0.118222640282378</v>
       </c>
       <c r="U5" t="n">
-        <v>4107.800200757471</v>
+        <v>4107.800200398927</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01075046507247157</v>
+        <v>0.01075046556714188</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1722,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>14117.75860244194</v>
+        <v>14117.75863762159</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3742798932167073</v>
+        <v>0.3742798941973187</v>
       </c>
       <c r="AE5" t="n">
-        <v>13087.77155775971</v>
+        <v>13087.77159220715</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.333998593837488</v>
+        <v>-4.333998620420773</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1780,7 +1847,7 @@
         <v>15318.52586089467</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.555979953552551</v>
+        <v>-6.555979953552552</v>
       </c>
       <c r="O6" t="n">
         <v>48044.50268231743</v>
@@ -1792,16 +1859,16 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>4003.272269457161</v>
+        <v>4925.9700815557</v>
       </c>
       <c r="S6" t="n">
-        <v>2223.913349845942</v>
+        <v>2223.913349845943</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04881725845894706</v>
+        <v>0.04881725845894708</v>
       </c>
       <c r="U6" t="n">
-        <v>1807.104567303513</v>
+        <v>1807.104567303514</v>
       </c>
       <c r="V6" t="n">
         <v>0.8958271062864733</v>
@@ -1824,7 +1891,7 @@
         <v>15318.52586089467</v>
       </c>
       <c r="AF6" t="n">
-        <v>-6.555979953552551</v>
+        <v>-6.555979953552552</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2521,7 +2588,7 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>33242.37756770849</v>
+        <v>33013.61341005564</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2534,7 +2601,7 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>33388.80780571699</v>
+        <v>33062.24174553156</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2547,7 +2614,7 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>33600.90289062262</v>
+        <v>32644.231854707</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2560,7 +2627,7 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>33120.78796198964</v>
+        <v>35210.29119679332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2573,7 +2640,7 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>33337.68641859293</v>
+        <v>33747.27781528234</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2586,7 +2653,7 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>36594.78431650996</v>
+        <v>35803.7708337307</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2599,7 +2666,7 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>38224.20692005754</v>
+        <v>37066.54396626353</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2612,7 +2679,7 @@
         <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>39848.61181268096</v>
+        <v>39855.34423741698</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2625,7 +2692,7 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>37448.24854552746</v>
+        <v>36738.54173448682</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2638,7 +2705,7 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>31998.09292200208</v>
+        <v>33084.06088614464</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2651,7 +2718,7 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>32742.34341321886</v>
+        <v>32283.37250602245</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2664,7 +2731,7 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>35440.03914186358</v>
+        <v>36747.61806237698</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2677,7 +2744,7 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>39030.37329718471</v>
+        <v>36726.66516831517</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2690,7 +2757,7 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>36558.74668204784</v>
+        <v>36389.15200376511</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2703,7 +2770,7 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>39549.12262445688</v>
+        <v>39940.4793830812</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2716,7 +2783,7 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>37359.02613848448</v>
+        <v>36698.40399804711</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2729,7 +2796,7 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>39107.03562310338</v>
+        <v>40334.42796719074</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2742,7 +2809,7 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>43671.39932847023</v>
+        <v>44650.48708671331</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2755,7 +2822,7 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>44740.26657819748</v>
+        <v>45375.39025259018</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2768,7 +2835,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>45638.12470829487</v>
+        <v>44026.04086410999</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2781,7 +2848,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>42906.82661414146</v>
+        <v>45108.02330392599</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2794,7 +2861,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>39119.16307482123</v>
+        <v>38607.81684663892</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2807,7 +2874,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>36986.03044843674</v>
+        <v>39277.11429318786</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2820,7 +2887,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>37302.95519438386</v>
+        <v>39322.63816696405</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2833,7 +2900,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>39666.13900151849</v>
+        <v>41342.80019265413</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2846,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>38914.08685877919</v>
+        <v>39356.95713666081</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2859,7 +2926,7 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>40237.20092839003</v>
+        <v>39077.86277031898</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2872,7 +2939,7 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>37244.54232260585</v>
+        <v>37226.34126764536</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2885,7 +2952,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>32208.11029924452</v>
+        <v>32150.00708344579</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2898,7 +2965,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>34467.30846777558</v>
+        <v>36335.08715629578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2911,7 +2978,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>34008.52671247721</v>
+        <v>35940.19231882691</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2924,7 +2991,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>33514.29897800088</v>
+        <v>33746.47478398681</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2937,7 +3004,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>32376.69007635117</v>
+        <v>33483.00742641091</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2950,7 +3017,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>29561.1611110121</v>
+        <v>29012.09908087552</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2963,7 +3030,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>29993.82163122296</v>
+        <v>29678.97409906983</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2976,7 +3043,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>34325.08006879687</v>
+        <v>32694.6800981313</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2989,7 +3056,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>32034.16216409206</v>
+        <v>32675.4374730587</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3002,7 +3069,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>34722.01656147838</v>
+        <v>33114.59286692739</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3047,12 +3114,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3074,16 +3141,16 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>40763.58536010981</v>
+        <v>41168.79970240593</v>
       </c>
       <c r="D2" t="n">
-        <v>44209.95247621513</v>
+        <v>40038.74844872952</v>
       </c>
       <c r="E2" t="n">
-        <v>40012.81309956312</v>
+        <v>44343.83202320285</v>
       </c>
       <c r="F2" t="n">
-        <v>53678.12792135916</v>
+        <v>53678.12793524702</v>
       </c>
       <c r="G2" t="n">
         <v>61264.31240694756</v>
@@ -3097,16 +3164,16 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>39156.01828616858</v>
+        <v>40958.26574629545</v>
       </c>
       <c r="D3" t="n">
-        <v>40406.47512764804</v>
+        <v>43457.21461677551</v>
       </c>
       <c r="E3" t="n">
-        <v>38747.68853628635</v>
+        <v>42769.87636563362</v>
       </c>
       <c r="F3" t="n">
-        <v>44363.7905400532</v>
+        <v>44363.79056071245</v>
       </c>
       <c r="G3" t="n">
         <v>44438.99705492344</v>
@@ -3120,16 +3187,16 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>39303.77109980583</v>
+        <v>41565.48252058029</v>
       </c>
       <c r="D4" t="n">
-        <v>39664.00553007231</v>
+        <v>39436.49155974388</v>
       </c>
       <c r="E4" t="n">
-        <v>39236.11386960745</v>
+        <v>40576.43539135475</v>
       </c>
       <c r="F4" t="n">
-        <v>40497.81802027613</v>
+        <v>40497.81803975926</v>
       </c>
       <c r="G4" t="n">
         <v>42403.90068078259</v>
@@ -3143,16 +3210,16 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>41390.44428575039</v>
+        <v>42195.77807784081</v>
       </c>
       <c r="D5" t="n">
-        <v>45336.09879000483</v>
+        <v>41774.64312756062</v>
       </c>
       <c r="E5" t="n">
-        <v>44368.46481812</v>
+        <v>44688.94072722154</v>
       </c>
       <c r="F5" t="n">
-        <v>52188.72658387622</v>
+        <v>52188.72662288513</v>
       </c>
       <c r="G5" t="n">
         <v>51833.16688778203</v>
@@ -3166,19 +3233,19 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>43030.87490606308</v>
+        <v>44420.65208506584</v>
       </c>
       <c r="D6" t="n">
-        <v>43640.5552020119</v>
+        <v>43285.62697982788</v>
       </c>
       <c r="E6" t="n">
-        <v>43278.69785153866</v>
+        <v>44158.18405739337</v>
       </c>
       <c r="F6" t="n">
-        <v>44944.78019488401</v>
+        <v>44944.78021640424</v>
       </c>
       <c r="G6" t="n">
-        <v>45195.29655943417</v>
+        <v>45195.29655943416</v>
       </c>
     </row>
     <row r="7">
@@ -3189,16 +3256,16 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>42526.68352472782</v>
+        <v>41960.46704125404</v>
       </c>
       <c r="D7" t="n">
-        <v>44640.11616397019</v>
+        <v>40253.11847156286</v>
       </c>
       <c r="E7" t="n">
-        <v>42475.9338517189</v>
+        <v>43611.22930835819</v>
       </c>
       <c r="F7" t="n">
-        <v>50506.19308376859</v>
+        <v>50506.19311538591</v>
       </c>
       <c r="G7" t="n">
         <v>50370.80976259477</v>
@@ -3212,19 +3279,19 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>44943.77613162994</v>
+        <v>46847.82647120953</v>
       </c>
       <c r="D8" t="n">
-        <v>49174.02571412893</v>
+        <v>46178.8127104044</v>
       </c>
       <c r="E8" t="n">
-        <v>46028.58228182793</v>
+        <v>49915.77721978819</v>
       </c>
       <c r="F8" t="n">
-        <v>59157.22378324738</v>
+        <v>59157.22382850799</v>
       </c>
       <c r="G8" t="n">
-        <v>60230.2036873203</v>
+        <v>60230.20368732031</v>
       </c>
     </row>
     <row r="9">
@@ -3235,19 +3302,19 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>45899.09268391132</v>
+        <v>45404.48960721493</v>
       </c>
       <c r="D9" t="n">
-        <v>50976.92076502365</v>
+        <v>48645.69969797134</v>
       </c>
       <c r="E9" t="n">
-        <v>46597.59387993813</v>
+        <v>51503.57501825837</v>
       </c>
       <c r="F9" t="n">
-        <v>63510.09392068678</v>
+        <v>63510.09396525913</v>
       </c>
       <c r="G9" t="n">
-        <v>66830.17857919435</v>
+        <v>66830.17857919437</v>
       </c>
     </row>
     <row r="10">
@@ -3258,19 +3325,19 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>45072.12794470787</v>
+        <v>45432.73683834076</v>
       </c>
       <c r="D10" t="n">
-        <v>46878.27669621176</v>
+        <v>48896.435074687</v>
       </c>
       <c r="E10" t="n">
-        <v>45925.45167636871</v>
+        <v>48079.48612311478</v>
       </c>
       <c r="F10" t="n">
-        <v>50695.50354242595</v>
+        <v>50695.50359534775</v>
       </c>
       <c r="G10" t="n">
-        <v>50548.07375872936</v>
+        <v>50548.07375872935</v>
       </c>
     </row>
     <row r="11">
@@ -3281,16 +3348,16 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>48392.55095112324</v>
+        <v>45485.2015683651</v>
       </c>
       <c r="D11" t="n">
-        <v>46999.39898954239</v>
+        <v>45950.1291308403</v>
       </c>
       <c r="E11" t="n">
-        <v>51187.59668731689</v>
+        <v>44047.6938536939</v>
       </c>
       <c r="F11" t="n">
-        <v>39677.36847653682</v>
+        <v>39677.36852016934</v>
       </c>
       <c r="G11" t="n">
         <v>37873.44758048125</v>
@@ -3304,19 +3371,19 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>52016.47945988178</v>
+        <v>48937.38229370117</v>
       </c>
       <c r="D12" t="n">
-        <v>50006.00147701261</v>
+        <v>48196.93389427662</v>
       </c>
       <c r="E12" t="n">
-        <v>52107.66425561905</v>
+        <v>47459.08627445069</v>
       </c>
       <c r="F12" t="n">
-        <v>44218.51501218921</v>
+        <v>44218.51503998814</v>
       </c>
       <c r="G12" t="n">
-        <v>45526.35421507467</v>
+        <v>45526.35421507466</v>
       </c>
     </row>
     <row r="13">
@@ -3327,16 +3394,16 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>49771.24636650085</v>
+        <v>52552.63123595715</v>
       </c>
       <c r="D13" t="n">
-        <v>49773.77182576601</v>
+        <v>49437.55511581898</v>
       </c>
       <c r="E13" t="n">
-        <v>49783.92028403282</v>
+        <v>50685.04611635036</v>
       </c>
       <c r="F13" t="n">
-        <v>49425.17395135095</v>
+        <v>49425.17397693053</v>
       </c>
       <c r="G13" t="n">
         <v>52090.65435392671</v>
@@ -3350,16 +3417,16 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>52696.0721988678</v>
+        <v>54013.62704205513</v>
       </c>
       <c r="D14" t="n">
-        <v>54948.00689238343</v>
+        <v>54428.29281961918</v>
       </c>
       <c r="E14" t="n">
-        <v>53137.06717419624</v>
+        <v>55894.54067907334</v>
       </c>
       <c r="F14" t="n">
-        <v>58624.3018727101</v>
+        <v>58624.30191217755</v>
       </c>
       <c r="G14" t="n">
         <v>73531.46088877431</v>
@@ -3373,16 +3440,16 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>51440.23333787918</v>
+        <v>53863.30164289474</v>
       </c>
       <c r="D15" t="n">
-        <v>50580.99982934283</v>
+        <v>54170.23912143707</v>
       </c>
       <c r="E15" t="n">
-        <v>50613.66337835789</v>
+        <v>52770.5490536399</v>
       </c>
       <c r="F15" t="n">
-        <v>49309.96449140414</v>
+        <v>49309.96453764298</v>
       </c>
       <c r="G15" t="n">
         <v>49521.52881513714</v>
@@ -3396,16 +3463,16 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>52580.21181082726</v>
+        <v>51485.99984848499</v>
       </c>
       <c r="D16" t="n">
-        <v>49864.73829594535</v>
+        <v>51685.32820677757</v>
       </c>
       <c r="E16" t="n">
-        <v>50086.38110995293</v>
+        <v>50039.36620619956</v>
       </c>
       <c r="F16" t="n">
-        <v>45443.99197162706</v>
+        <v>45443.99201668979</v>
       </c>
       <c r="G16" t="n">
         <v>48044.50268231743</v>
@@ -3448,12 +3515,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3475,16 +3542,16 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>40763.58536010981</v>
+        <v>41168.79970240593</v>
       </c>
       <c r="D2" t="n">
-        <v>44209.95247621513</v>
+        <v>40038.74844872952</v>
       </c>
       <c r="E2" t="n">
-        <v>40012.81309956312</v>
+        <v>44343.83202320285</v>
       </c>
       <c r="F2" t="n">
-        <v>53678.12792135916</v>
+        <v>53678.12793524702</v>
       </c>
       <c r="G2" t="n">
         <v>61264.31240694756</v>
@@ -3498,16 +3565,16 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>39156.01828616858</v>
+        <v>40958.26574629545</v>
       </c>
       <c r="D3" t="n">
-        <v>40406.47512764804</v>
+        <v>43457.21461677551</v>
       </c>
       <c r="E3" t="n">
-        <v>38747.68853628635</v>
+        <v>42769.87636563362</v>
       </c>
       <c r="F3" t="n">
-        <v>44363.7905400532</v>
+        <v>44363.79056071245</v>
       </c>
       <c r="G3" t="n">
         <v>44438.99705492344</v>
@@ -3521,16 +3588,16 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>39303.77109980583</v>
+        <v>41565.48252058029</v>
       </c>
       <c r="D4" t="n">
-        <v>39664.00553007231</v>
+        <v>39436.49155974388</v>
       </c>
       <c r="E4" t="n">
-        <v>39236.11386960745</v>
+        <v>40576.43539135475</v>
       </c>
       <c r="F4" t="n">
-        <v>40497.81802027613</v>
+        <v>40497.81803975926</v>
       </c>
       <c r="G4" t="n">
         <v>42403.90068078259</v>
@@ -3544,16 +3611,16 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>41390.44428575039</v>
+        <v>42195.77807784081</v>
       </c>
       <c r="D5" t="n">
-        <v>45336.09879000483</v>
+        <v>41774.64312756062</v>
       </c>
       <c r="E5" t="n">
-        <v>44368.46481812</v>
+        <v>44688.94072722154</v>
       </c>
       <c r="F5" t="n">
-        <v>52188.72658387622</v>
+        <v>52188.72662288513</v>
       </c>
       <c r="G5" t="n">
         <v>51833.16688778203</v>
@@ -3567,19 +3634,19 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>43030.87490606308</v>
+        <v>44420.65208506584</v>
       </c>
       <c r="D6" t="n">
-        <v>43640.5552020119</v>
+        <v>43285.62697982788</v>
       </c>
       <c r="E6" t="n">
-        <v>43278.69785153866</v>
+        <v>44158.18405739337</v>
       </c>
       <c r="F6" t="n">
-        <v>44944.78019488401</v>
+        <v>44944.78021640424</v>
       </c>
       <c r="G6" t="n">
-        <v>45195.29655943417</v>
+        <v>45195.29655943416</v>
       </c>
     </row>
     <row r="7">
@@ -3590,16 +3657,16 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>42526.68352472782</v>
+        <v>41960.46704125404</v>
       </c>
       <c r="D7" t="n">
-        <v>44640.11616397019</v>
+        <v>40253.11847156286</v>
       </c>
       <c r="E7" t="n">
-        <v>42475.9338517189</v>
+        <v>43611.22930835819</v>
       </c>
       <c r="F7" t="n">
-        <v>50506.19308376859</v>
+        <v>50506.19311538591</v>
       </c>
       <c r="G7" t="n">
         <v>50370.80976259477</v>
@@ -3613,19 +3680,19 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>44943.77613162994</v>
+        <v>46847.82647120953</v>
       </c>
       <c r="D8" t="n">
-        <v>49174.02571412893</v>
+        <v>46178.8127104044</v>
       </c>
       <c r="E8" t="n">
-        <v>46028.58228182793</v>
+        <v>49915.77721978819</v>
       </c>
       <c r="F8" t="n">
-        <v>59157.22378324738</v>
+        <v>59157.22382850799</v>
       </c>
       <c r="G8" t="n">
-        <v>60230.2036873203</v>
+        <v>60230.20368732031</v>
       </c>
     </row>
     <row r="9">
@@ -3636,19 +3703,19 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>45899.09268391132</v>
+        <v>45404.48960721493</v>
       </c>
       <c r="D9" t="n">
-        <v>50976.92076502365</v>
+        <v>48645.69969797134</v>
       </c>
       <c r="E9" t="n">
-        <v>46597.59387993813</v>
+        <v>51503.57501825837</v>
       </c>
       <c r="F9" t="n">
-        <v>63510.09392068678</v>
+        <v>63510.09396525913</v>
       </c>
       <c r="G9" t="n">
-        <v>66830.17857919435</v>
+        <v>66830.17857919437</v>
       </c>
     </row>
     <row r="10">
@@ -3659,19 +3726,19 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>45072.12794470787</v>
+        <v>45432.73683834076</v>
       </c>
       <c r="D10" t="n">
-        <v>46878.27669621176</v>
+        <v>48896.435074687</v>
       </c>
       <c r="E10" t="n">
-        <v>45925.45167636871</v>
+        <v>48079.48612311478</v>
       </c>
       <c r="F10" t="n">
-        <v>50695.50354242595</v>
+        <v>50695.50359534775</v>
       </c>
       <c r="G10" t="n">
-        <v>50548.07375872936</v>
+        <v>50548.07375872935</v>
       </c>
     </row>
     <row r="11">
@@ -3682,16 +3749,16 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>48392.55095112324</v>
+        <v>45485.2015683651</v>
       </c>
       <c r="D11" t="n">
-        <v>46999.39898954239</v>
+        <v>45950.1291308403</v>
       </c>
       <c r="E11" t="n">
-        <v>51187.59668731689</v>
+        <v>44047.6938536939</v>
       </c>
       <c r="F11" t="n">
-        <v>39677.36847653682</v>
+        <v>39677.36852016934</v>
       </c>
       <c r="G11" t="n">
         <v>37873.44758048125</v>
@@ -3705,19 +3772,19 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>52016.47945988178</v>
+        <v>48937.38229370117</v>
       </c>
       <c r="D12" t="n">
-        <v>50006.00147701261</v>
+        <v>48196.93389427662</v>
       </c>
       <c r="E12" t="n">
-        <v>52107.66425561905</v>
+        <v>47459.08627445069</v>
       </c>
       <c r="F12" t="n">
-        <v>44218.51501218921</v>
+        <v>44218.51503998814</v>
       </c>
       <c r="G12" t="n">
-        <v>45526.35421507467</v>
+        <v>45526.35421507466</v>
       </c>
     </row>
     <row r="13">
@@ -3728,16 +3795,16 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>49771.24636650085</v>
+        <v>52552.63123595715</v>
       </c>
       <c r="D13" t="n">
-        <v>49773.77182576601</v>
+        <v>49437.55511581898</v>
       </c>
       <c r="E13" t="n">
-        <v>49783.92028403282</v>
+        <v>50685.04611635036</v>
       </c>
       <c r="F13" t="n">
-        <v>49425.17395135095</v>
+        <v>49425.17397693053</v>
       </c>
       <c r="G13" t="n">
         <v>52090.65435392671</v>
@@ -3751,16 +3818,16 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>52696.0721988678</v>
+        <v>54013.62704205513</v>
       </c>
       <c r="D14" t="n">
-        <v>54948.00689238343</v>
+        <v>54428.29281961918</v>
       </c>
       <c r="E14" t="n">
-        <v>53137.06717419624</v>
+        <v>55894.54067907334</v>
       </c>
       <c r="F14" t="n">
-        <v>58624.3018727101</v>
+        <v>58624.30191217755</v>
       </c>
       <c r="G14" t="n">
         <v>73531.46088877431</v>
@@ -3774,16 +3841,16 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>51440.23333787918</v>
+        <v>53863.30164289474</v>
       </c>
       <c r="D15" t="n">
-        <v>50580.99982934283</v>
+        <v>54170.23912143707</v>
       </c>
       <c r="E15" t="n">
-        <v>50613.66337835789</v>
+        <v>52770.5490536399</v>
       </c>
       <c r="F15" t="n">
-        <v>49309.96449140414</v>
+        <v>49309.96453764298</v>
       </c>
       <c r="G15" t="n">
         <v>49521.52881513714</v>
@@ -3797,16 +3864,16 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>52580.21181082726</v>
+        <v>51485.99984848499</v>
       </c>
       <c r="D16" t="n">
-        <v>49864.73829594535</v>
+        <v>51685.32820677757</v>
       </c>
       <c r="E16" t="n">
-        <v>50086.38110995293</v>
+        <v>50039.36620619956</v>
       </c>
       <c r="F16" t="n">
-        <v>45443.99197162706</v>
+        <v>45443.99201668979</v>
       </c>
       <c r="G16" t="n">
         <v>48044.50268231743</v>
@@ -3844,12 +3911,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3868,16 +3935,16 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33242.37756770849</v>
+        <v>33013.61341005564</v>
       </c>
       <c r="C2" t="n">
-        <v>35320.47517095509</v>
+        <v>33801.9491341114</v>
       </c>
       <c r="D2" t="n">
-        <v>32788.27028425038</v>
+        <v>35584.50415306971</v>
       </c>
       <c r="E2" t="n">
-        <v>42768.83444922843</v>
+        <v>42768.83445109156</v>
       </c>
       <c r="F2" t="n">
         <v>33664.51896821272</v>
@@ -3888,16 +3955,16 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33388.80780571699</v>
+        <v>33062.24174553156</v>
       </c>
       <c r="C3" t="n">
-        <v>32083.29764050231</v>
+        <v>32212.02618801594</v>
       </c>
       <c r="D3" t="n">
-        <v>32661.63234771788</v>
+        <v>31803.75657169494</v>
       </c>
       <c r="E3" t="n">
-        <v>29366.85274213152</v>
+        <v>29366.85274795779</v>
       </c>
       <c r="F3" t="n">
         <v>30300.21953445172</v>
@@ -3908,16 +3975,16 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>33600.90289062262</v>
+        <v>32644.231854707</v>
       </c>
       <c r="C4" t="n">
-        <v>33113.44725209372</v>
+        <v>34468.53622657061</v>
       </c>
       <c r="D4" t="n">
-        <v>33357.22289583087</v>
+        <v>33160.79171375209</v>
       </c>
       <c r="E4" t="n">
-        <v>31940.08526850851</v>
+        <v>31940.08527679042</v>
       </c>
       <c r="F4" t="n">
         <v>33247.85434848179</v>
@@ -3928,16 +3995,16 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>33120.78796198964</v>
+        <v>35210.29119679332</v>
       </c>
       <c r="C5" t="n">
-        <v>34428.4705634478</v>
+        <v>32155.43766900897</v>
       </c>
       <c r="D5" t="n">
-        <v>33871.03748220205</v>
+        <v>34582.18553642182</v>
       </c>
       <c r="E5" t="n">
-        <v>37050.35984676608</v>
+        <v>37050.35985801607</v>
       </c>
       <c r="F5" t="n">
         <v>36665.13230255936</v>
@@ -3948,16 +4015,16 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33337.68641859293</v>
+        <v>33747.27781528234</v>
       </c>
       <c r="C6" t="n">
-        <v>35083.20719322145</v>
+        <v>33416.43089699745</v>
       </c>
       <c r="D6" t="n">
-        <v>33917.15597447753</v>
+        <v>35046.40897775679</v>
       </c>
       <c r="E6" t="n">
-        <v>39126.24738652547</v>
+        <v>39126.24739941274</v>
       </c>
       <c r="F6" t="n">
         <v>38780.61773097503</v>
@@ -3968,16 +4035,16 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>36594.78431650996</v>
+        <v>35803.7708337307</v>
       </c>
       <c r="C7" t="n">
-        <v>34481.33190677183</v>
+        <v>35918.5608485043</v>
       </c>
       <c r="D7" t="n">
-        <v>35841.59232369065</v>
+        <v>34224.05974980894</v>
       </c>
       <c r="E7" t="n">
-        <v>30000.76527183234</v>
+        <v>30000.76528226981</v>
       </c>
       <c r="F7" t="n">
         <v>27697.69541809021</v>
@@ -3988,16 +4055,16 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>38224.20692005754</v>
+        <v>37066.54396626353</v>
       </c>
       <c r="C8" t="n">
-        <v>33403.30573257162</v>
+        <v>36360.64686211944</v>
       </c>
       <c r="D8" t="n">
-        <v>36909.89063611627</v>
+        <v>32798.04969920164</v>
       </c>
       <c r="E8" t="n">
-        <v>22040.15177370069</v>
+        <v>22040.15178163605</v>
       </c>
       <c r="F8" t="n">
         <v>21529.76843322252</v>
@@ -4008,16 +4075,16 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39848.61181268096</v>
+        <v>39855.34423741698</v>
       </c>
       <c r="C9" t="n">
-        <v>35537.19439952885</v>
+        <v>36992.72632685304</v>
       </c>
       <c r="D9" t="n">
-        <v>36865.3633903563</v>
+        <v>35597.42632879813</v>
       </c>
       <c r="E9" t="n">
-        <v>27946.81746304931</v>
+        <v>27946.81746954036</v>
       </c>
       <c r="F9" t="n">
         <v>26288.83112180295</v>
@@ -4028,16 +4095,16 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>37448.24854552746</v>
+        <v>36738.54173448682</v>
       </c>
       <c r="C10" t="n">
-        <v>35370.20022715076</v>
+        <v>36049.18134614825</v>
       </c>
       <c r="D10" t="n">
-        <v>33983.1517137289</v>
+        <v>35846.38231170209</v>
       </c>
       <c r="E10" t="n">
-        <v>35149.54351236922</v>
+        <v>35149.54351735482</v>
       </c>
       <c r="F10" t="n">
         <v>28642.65247217976</v>
@@ -4048,16 +4115,16 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>31998.09292200208</v>
+        <v>33084.06088614464</v>
       </c>
       <c r="C11" t="n">
-        <v>33978.15428507105</v>
+        <v>31615.88805325329</v>
       </c>
       <c r="D11" t="n">
-        <v>33633.98521187901</v>
+        <v>33648.86611842288</v>
       </c>
       <c r="E11" t="n">
-        <v>37682.11271637251</v>
+        <v>37682.11272238519</v>
       </c>
       <c r="F11" t="n">
         <v>33926.55001114417</v>
@@ -4068,16 +4135,16 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32742.34341321886</v>
+        <v>32283.37250602245</v>
       </c>
       <c r="C12" t="n">
-        <v>32748.4301222464</v>
+        <v>33549.23923513293</v>
       </c>
       <c r="D12" t="n">
-        <v>33528.50858220458</v>
+        <v>32588.90436160184</v>
       </c>
       <c r="E12" t="n">
-        <v>32308.32897529986</v>
+        <v>32308.32897905019</v>
       </c>
       <c r="F12" t="n">
         <v>27621.21806516847</v>
@@ -4088,16 +4155,16 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>35440.03914186358</v>
+        <v>36747.61806237698</v>
       </c>
       <c r="C13" t="n">
-        <v>34119.54126220142</v>
+        <v>36465.32046049833</v>
       </c>
       <c r="D13" t="n">
-        <v>35448.23341938853</v>
+        <v>34982.36186894637</v>
       </c>
       <c r="E13" t="n">
-        <v>31659.65275139109</v>
+        <v>31659.65275004424</v>
       </c>
       <c r="F13" t="n">
         <v>22502.22173637916</v>
@@ -4108,16 +4175,16 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>39030.37329718471</v>
+        <v>36726.66516831517</v>
       </c>
       <c r="C14" t="n">
-        <v>38560.28721488553</v>
+        <v>37206.45216780901</v>
       </c>
       <c r="D14" t="n">
-        <v>37063.39703181386</v>
+        <v>37744.59571479756</v>
       </c>
       <c r="E14" t="n">
-        <v>41569.48720061951</v>
+        <v>41569.48720113581</v>
       </c>
       <c r="F14" t="n">
         <v>28477.76420144224</v>
@@ -4128,16 +4195,16 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>36558.74668204784</v>
+        <v>36389.15200376511</v>
       </c>
       <c r="C15" t="n">
-        <v>34299.66049995779</v>
+        <v>36452.07488894463</v>
       </c>
       <c r="D15" t="n">
-        <v>37032.03337532282</v>
+        <v>34044.01283709541</v>
       </c>
       <c r="E15" t="n">
-        <v>28167.50549352261</v>
+        <v>28167.50549800204</v>
       </c>
       <c r="F15" t="n">
         <v>22809.00448685582</v>
@@ -4148,19 +4215,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39549.12262445688</v>
+        <v>39940.4793830812</v>
       </c>
       <c r="C16" t="n">
-        <v>37208.74302732129</v>
+        <v>38274.57071185112</v>
       </c>
       <c r="D16" t="n">
-        <v>40045.52239561081</v>
+        <v>36732.2369843685</v>
       </c>
       <c r="E16" t="n">
-        <v>30740.7380198996</v>
+        <v>30740.73802683467</v>
       </c>
       <c r="F16" t="n">
-        <v>26032.21215153514</v>
+        <v>26032.21215153513</v>
       </c>
     </row>
     <row r="17">
@@ -4168,19 +4235,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>37359.02613848448</v>
+        <v>36698.40399804711</v>
       </c>
       <c r="C17" t="n">
-        <v>36941.93240994729</v>
+        <v>38846.17787030339</v>
       </c>
       <c r="D17" t="n">
-        <v>37823.17822730541</v>
+        <v>37070.5654590563</v>
       </c>
       <c r="E17" t="n">
-        <v>35851.01259815718</v>
+        <v>35851.01260806032</v>
       </c>
       <c r="F17" t="n">
-        <v>30567.10141821985</v>
+        <v>30567.10141821986</v>
       </c>
     </row>
     <row r="18">
@@ -4188,16 +4255,16 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>39107.03562310338</v>
+        <v>40334.42796719074</v>
       </c>
       <c r="C18" t="n">
-        <v>38175.15785036294</v>
+        <v>40397.32615891099</v>
       </c>
       <c r="D18" t="n">
-        <v>37848.33592361212</v>
+        <v>39552.58075000137</v>
       </c>
       <c r="E18" t="n">
-        <v>37926.90013791656</v>
+        <v>37926.900149457</v>
       </c>
       <c r="F18" t="n">
         <v>33074.34895645222</v>
@@ -4208,16 +4275,16 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>43671.39932847023</v>
+        <v>44650.48708671331</v>
       </c>
       <c r="C19" t="n">
-        <v>39524.61008752971</v>
+        <v>40699.11677753925</v>
       </c>
       <c r="D19" t="n">
-        <v>43881.90217912197</v>
+        <v>38766.83228456085</v>
       </c>
       <c r="E19" t="n">
-        <v>28801.41802322343</v>
+        <v>28801.41803231407</v>
       </c>
       <c r="F19" t="n">
         <v>21704.34035468017</v>
@@ -4228,16 +4295,16 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>44740.26657819748</v>
+        <v>45375.39025259018</v>
       </c>
       <c r="C20" t="n">
-        <v>37658.89355506893</v>
+        <v>44195.05080127716</v>
       </c>
       <c r="D20" t="n">
-        <v>43463.2512460947</v>
+        <v>38199.33722449026</v>
       </c>
       <c r="E20" t="n">
-        <v>20840.80452509178</v>
+        <v>20840.80453168031</v>
       </c>
       <c r="F20" t="n">
         <v>14203.76924652807</v>
@@ -4248,16 +4315,16 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>45638.12470829487</v>
+        <v>44026.04086410999</v>
       </c>
       <c r="C21" t="n">
-        <v>40119.97373501928</v>
+        <v>45961.47469234467</v>
       </c>
       <c r="D21" t="n">
-        <v>45062.76908272505</v>
+        <v>39877.05676489169</v>
       </c>
       <c r="E21" t="n">
-        <v>26747.4702144404</v>
+        <v>26747.47021958463</v>
       </c>
       <c r="F21" t="n">
         <v>19255.29824495617</v>
@@ -4268,19 +4335,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>42906.82661414146</v>
+        <v>45108.02330392599</v>
       </c>
       <c r="C22" t="n">
-        <v>39624.77262947056</v>
+        <v>41862.62319153547</v>
       </c>
       <c r="D22" t="n">
-        <v>41482.14242011309</v>
+        <v>40595.14870672981</v>
       </c>
       <c r="E22" t="n">
-        <v>33950.19626376031</v>
+        <v>33950.19626739908</v>
       </c>
       <c r="F22" t="n">
-        <v>22955.66076581014</v>
+        <v>22955.66076581013</v>
       </c>
     </row>
     <row r="23">
@@ -4288,16 +4355,16 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>39119.16307482123</v>
+        <v>38607.81684663892</v>
       </c>
       <c r="C23" t="n">
-        <v>37492.46845019917</v>
+        <v>38518.59641507268</v>
       </c>
       <c r="D23" t="n">
-        <v>37380.54105567932</v>
+        <v>37713.60227533646</v>
       </c>
       <c r="E23" t="n">
-        <v>36482.76546776359</v>
+        <v>36482.76547242946</v>
       </c>
       <c r="F23" t="n">
         <v>27718.15186696986</v>
@@ -4308,16 +4375,16 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>36986.03044843674</v>
+        <v>39277.11429318786</v>
       </c>
       <c r="C24" t="n">
-        <v>35202.3815970595</v>
+        <v>38871.08468106389</v>
       </c>
       <c r="D24" t="n">
-        <v>37417.6760674715</v>
+        <v>36594.66761276348</v>
       </c>
       <c r="E24" t="n">
-        <v>31108.98172669094</v>
+        <v>31108.98172909446</v>
       </c>
       <c r="F24" t="n">
         <v>20376.57660431757</v>
@@ -4328,16 +4395,16 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>37302.95519438386</v>
+        <v>39322.63816696405</v>
       </c>
       <c r="C25" t="n">
-        <v>35428.15293434522</v>
+        <v>38896.26015666127</v>
       </c>
       <c r="D25" t="n">
-        <v>38553.35887929797</v>
+        <v>36322.74566952667</v>
       </c>
       <c r="E25" t="n">
-        <v>30460.30550278218</v>
+        <v>30460.30550008851</v>
       </c>
       <c r="F25" t="n">
         <v>16022.94496392362</v>
@@ -4348,16 +4415,16 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>39666.13900151849</v>
+        <v>41342.80019265413</v>
       </c>
       <c r="C26" t="n">
-        <v>38986.90887928051</v>
+        <v>40479.60575294495</v>
       </c>
       <c r="D26" t="n">
-        <v>38867.0932303071</v>
+        <v>40192.94320315283</v>
       </c>
       <c r="E26" t="n">
-        <v>40370.1399520106</v>
+        <v>40370.13995118008</v>
       </c>
       <c r="F26" t="n">
         <v>23270.38047470125</v>
@@ -4368,16 +4435,16 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>38914.08685877919</v>
+        <v>39356.95713666081</v>
       </c>
       <c r="C27" t="n">
-        <v>36386.97888618641</v>
+        <v>40381.91842806339</v>
       </c>
       <c r="D27" t="n">
-        <v>41895.05064225197</v>
+        <v>36037.49665229886</v>
       </c>
       <c r="E27" t="n">
-        <v>26968.15824491369</v>
+        <v>26968.15824804631</v>
       </c>
       <c r="F27" t="n">
         <v>15292.88215569458</v>
@@ -4388,19 +4455,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>40237.20092839003</v>
+        <v>39077.86277031898</v>
       </c>
       <c r="C28" t="n">
-        <v>36998.33784480434</v>
+        <v>38772.39480173588</v>
       </c>
       <c r="D28" t="n">
-        <v>40205.17548719049</v>
+        <v>36068.82604188978</v>
       </c>
       <c r="E28" t="n">
-        <v>29541.39077129069</v>
+        <v>29541.39077687894</v>
       </c>
       <c r="F28" t="n">
-        <v>18836.77849978203</v>
+        <v>18836.77849978202</v>
       </c>
     </row>
     <row r="29">
@@ -4408,19 +4475,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37244.54232260585</v>
+        <v>37226.34126764536</v>
       </c>
       <c r="C29" t="n">
-        <v>36220.44713131137</v>
+        <v>33268.41928985715</v>
       </c>
       <c r="D29" t="n">
-        <v>37287.64623737335</v>
+        <v>34766.75518973574</v>
       </c>
       <c r="E29" t="n">
-        <v>34651.66534954826</v>
+        <v>34651.66535810458</v>
       </c>
       <c r="F29" t="n">
-        <v>24493.84823356892</v>
+        <v>24493.84823356891</v>
       </c>
     </row>
     <row r="30">
@@ -4428,16 +4495,16 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>32208.11029924452</v>
+        <v>32150.00708344579</v>
       </c>
       <c r="C30" t="n">
-        <v>33038.49676926696</v>
+        <v>32887.65009883046</v>
       </c>
       <c r="D30" t="n">
-        <v>32037.42861488461</v>
+        <v>33316.88317637087</v>
       </c>
       <c r="E30" t="n">
-        <v>36727.55288930765</v>
+        <v>36727.55289950126</v>
       </c>
       <c r="F30" t="n">
         <v>27364.17225212542</v>
@@ -4448,16 +4515,16 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>34467.30846777558</v>
+        <v>36335.08715629578</v>
       </c>
       <c r="C31" t="n">
-        <v>32947.55744410744</v>
+        <v>33142.33152359724</v>
       </c>
       <c r="D31" t="n">
-        <v>36486.37212839723</v>
+        <v>32454.85948126805</v>
       </c>
       <c r="E31" t="n">
-        <v>27602.07077461451</v>
+        <v>27602.07078235833</v>
       </c>
       <c r="F31" t="n">
         <v>15685.65458531638</v>
@@ -4468,16 +4535,16 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>34008.52671247721</v>
+        <v>35940.19231882691</v>
       </c>
       <c r="C32" t="n">
-        <v>30459.41802240694</v>
+        <v>32786.81090080738</v>
       </c>
       <c r="D32" t="n">
-        <v>36050.55232700706</v>
+        <v>30033.09460574553</v>
       </c>
       <c r="E32" t="n">
-        <v>19641.45727648286</v>
+        <v>19641.45728172457</v>
       </c>
       <c r="F32" t="n">
         <v>6864.89963429511</v>
@@ -4488,16 +4555,16 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33514.29897800088</v>
+        <v>33746.47478398681</v>
       </c>
       <c r="C33" t="n">
-        <v>32164.41895807705</v>
+        <v>33151.67157763243</v>
       </c>
       <c r="D33" t="n">
-        <v>36961.99185970426</v>
+        <v>30900.61924971186</v>
       </c>
       <c r="E33" t="n">
-        <v>25548.12296583148</v>
+        <v>25548.12296962889</v>
       </c>
       <c r="F33" t="n">
         <v>12243.16008452258</v>
@@ -4508,16 +4575,16 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>32376.69007635117</v>
+        <v>33483.00742641091</v>
       </c>
       <c r="C34" t="n">
-        <v>33032.29275805791</v>
+        <v>37089.93459862471</v>
       </c>
       <c r="D34" t="n">
-        <v>35395.27977758646</v>
+        <v>34068.36145947547</v>
       </c>
       <c r="E34" t="n">
-        <v>32750.84901515139</v>
+        <v>32750.84901744334</v>
       </c>
       <c r="F34" t="n">
         <v>17281.27760985001</v>
@@ -4528,16 +4595,16 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>29561.1611110121</v>
+        <v>29012.09908087552</v>
       </c>
       <c r="C35" t="n">
-        <v>30871.19837233481</v>
+        <v>29824.71292021871</v>
       </c>
       <c r="D35" t="n">
-        <v>30250.92745982111</v>
+        <v>30506.48313405485</v>
       </c>
       <c r="E35" t="n">
-        <v>35283.41821915468</v>
+        <v>35283.41822247372</v>
       </c>
       <c r="F35" t="n">
         <v>21490.29922244512</v>
@@ -4548,16 +4615,16 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29993.82163122296</v>
+        <v>29678.97409906983</v>
       </c>
       <c r="C36" t="n">
-        <v>29003.89982079103</v>
+        <v>31335.74569649994</v>
       </c>
       <c r="D36" t="n">
-        <v>28886.03551420569</v>
+        <v>29771.02265885482</v>
       </c>
       <c r="E36" t="n">
-        <v>29909.63447808203</v>
+        <v>29909.63447913872</v>
       </c>
       <c r="F36" t="n">
         <v>13131.1951432342</v>
@@ -4568,19 +4635,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>34325.08006879687</v>
+        <v>32694.6800981313</v>
       </c>
       <c r="C37" t="n">
-        <v>31302.83998643297</v>
+        <v>31288.0073132962</v>
       </c>
       <c r="D37" t="n">
-        <v>31542.46847240627</v>
+        <v>30606.03898132042</v>
       </c>
       <c r="E37" t="n">
-        <v>29260.95825417326</v>
+        <v>29260.95825013277</v>
       </c>
       <c r="F37" t="n">
-        <v>9567.939870700742</v>
+        <v>9567.939870700746</v>
       </c>
     </row>
     <row r="38">
@@ -4588,16 +4655,16 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32034.16216409206</v>
+        <v>32675.4374730587</v>
       </c>
       <c r="C38" t="n">
-        <v>33555.22263343854</v>
+        <v>34585.90720170736</v>
       </c>
       <c r="D38" t="n">
-        <v>32952.35585176945</v>
+        <v>34377.8267892252</v>
       </c>
       <c r="E38" t="n">
-        <v>39170.79270340168</v>
+        <v>39170.79270122434</v>
       </c>
       <c r="F38" t="n">
         <v>18041.17629654186</v>
@@ -4608,16 +4675,16 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>34722.01656147838</v>
+        <v>33114.59286692739</v>
       </c>
       <c r="C39" t="n">
-        <v>30983.96868040308</v>
+        <v>33252.02777159214</v>
       </c>
       <c r="D39" t="n">
-        <v>32688.36449898779</v>
+        <v>30600.63572689971</v>
       </c>
       <c r="E39" t="n">
-        <v>25768.81099630478</v>
+        <v>25768.81099809057</v>
       </c>
       <c r="F39" t="n">
         <v>7752.963213589366</v>

--- a/fcst_results/no_covid_series_HOU-Int_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33013.61341005564</v>
+        <v>32944.06872683764</v>
       </c>
       <c r="C2" t="n">
-        <v>33801.9491341114</v>
+        <v>33713.49913847446</v>
       </c>
       <c r="D2" t="n">
         <v>42768.83445109156</v>
@@ -491,7 +491,7 @@
         <v>33664.51896821272</v>
       </c>
       <c r="F2" t="n">
-        <v>35584.50415306971</v>
+        <v>35521.09479952489</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33062.24174553156</v>
+        <v>32736.74836921692</v>
       </c>
       <c r="C3" t="n">
-        <v>32212.02618801594</v>
+        <v>32737.82846112549</v>
       </c>
       <c r="D3" t="n">
         <v>29366.85274795779</v>
@@ -511,7 +511,7 @@
         <v>30300.21953445172</v>
       </c>
       <c r="F3" t="n">
-        <v>31803.75657169494</v>
+        <v>31844.72195893741</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>32644.231854707</v>
+        <v>34474.25621947646</v>
       </c>
       <c r="C4" t="n">
-        <v>34468.53622657061</v>
+        <v>33868.32515263557</v>
       </c>
       <c r="D4" t="n">
         <v>31940.08527679042</v>
@@ -531,7 +531,7 @@
         <v>33247.85434848179</v>
       </c>
       <c r="F4" t="n">
-        <v>33160.79171375209</v>
+        <v>33649.28342776649</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>35210.29119679332</v>
+        <v>33419.28150993586</v>
       </c>
       <c r="C5" t="n">
-        <v>32155.43766900897</v>
+        <v>34060.36816087365</v>
       </c>
       <c r="D5" t="n">
         <v>37050.35985801607</v>
@@ -551,7 +551,7 @@
         <v>36665.13230255936</v>
       </c>
       <c r="F5" t="n">
-        <v>34582.18553642182</v>
+        <v>34593.08646680107</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33747.27781528234</v>
+        <v>33857.88969674706</v>
       </c>
       <c r="C6" t="n">
-        <v>33416.43089699745</v>
+        <v>33538.02544140816</v>
       </c>
       <c r="D6" t="n">
         <v>39126.24739941274</v>
@@ -571,7 +571,7 @@
         <v>38780.61773097503</v>
       </c>
       <c r="F6" t="n">
-        <v>35046.40897775679</v>
+        <v>35202.79387867016</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>35803.7708337307</v>
+        <v>35454.77817383409</v>
       </c>
       <c r="C7" t="n">
-        <v>35918.5608485043</v>
+        <v>36946.72636318207</v>
       </c>
       <c r="D7" t="n">
         <v>30000.76528226981</v>
@@ -591,7 +591,7 @@
         <v>27697.69541809021</v>
       </c>
       <c r="F7" t="n">
-        <v>34224.05974980894</v>
+        <v>34298.57186057742</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>37066.54396626353</v>
+        <v>37806.82720631361</v>
       </c>
       <c r="C8" t="n">
-        <v>36360.64686211944</v>
+        <v>37235.75540205836</v>
       </c>
       <c r="D8" t="n">
         <v>22040.15178163605</v>
@@ -611,7 +611,7 @@
         <v>21529.76843322252</v>
       </c>
       <c r="F8" t="n">
-        <v>32798.04969920164</v>
+        <v>33273.22784805063</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39855.34423741698</v>
+        <v>38930.88433751464</v>
       </c>
       <c r="C9" t="n">
-        <v>36992.72632685304</v>
+        <v>37835.58817219734</v>
       </c>
       <c r="D9" t="n">
         <v>27946.81746954036</v>
@@ -631,7 +631,7 @@
         <v>26288.83112180295</v>
       </c>
       <c r="F9" t="n">
-        <v>35597.42632879813</v>
+        <v>35516.93546208148</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>36738.54173448682</v>
+        <v>37005.46123766899</v>
       </c>
       <c r="C10" t="n">
-        <v>36049.18134614825</v>
+        <v>39014.83814808726</v>
       </c>
       <c r="D10" t="n">
         <v>35149.54351735482</v>
@@ -651,7 +651,7 @@
         <v>28642.65247217976</v>
       </c>
       <c r="F10" t="n">
-        <v>35846.38231170209</v>
+        <v>36828.0468457879</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>33084.06088614464</v>
+        <v>31623.29263395071</v>
       </c>
       <c r="C11" t="n">
-        <v>31615.88805325329</v>
+        <v>33802.89341199398</v>
       </c>
       <c r="D11" t="n">
         <v>37682.11272238519</v>
@@ -671,7 +671,7 @@
         <v>33926.55001114417</v>
       </c>
       <c r="F11" t="n">
-        <v>33648.86611842288</v>
+        <v>33785.35174892498</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32283.37250602245</v>
+        <v>32609.18986052275</v>
       </c>
       <c r="C12" t="n">
-        <v>33549.23923513293</v>
+        <v>33863.62845668197</v>
       </c>
       <c r="D12" t="n">
         <v>32308.32897905019</v>
@@ -691,7 +691,7 @@
         <v>27621.21806516847</v>
       </c>
       <c r="F12" t="n">
-        <v>32588.90436160184</v>
+        <v>32710.38819292042</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>36747.61806237698</v>
+        <v>36339.22182911634</v>
       </c>
       <c r="C13" t="n">
-        <v>36465.32046049833</v>
+        <v>36551.79695487022</v>
       </c>
       <c r="D13" t="n">
         <v>31659.65275004424</v>
@@ -711,7 +711,7 @@
         <v>22502.22173637916</v>
       </c>
       <c r="F13" t="n">
-        <v>34982.36186894637</v>
+        <v>34752.70774443019</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>36726.66516831517</v>
+        <v>36820.24942800403</v>
       </c>
       <c r="C14" t="n">
-        <v>37206.45216780901</v>
+        <v>37574.20000389218</v>
       </c>
       <c r="D14" t="n">
         <v>41569.48720113581</v>
@@ -731,7 +731,7 @@
         <v>28477.76420144224</v>
       </c>
       <c r="F14" t="n">
-        <v>37744.59571479756</v>
+        <v>37837.37026858094</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>36389.15200376511</v>
+        <v>37362.03478956223</v>
       </c>
       <c r="C15" t="n">
-        <v>36452.07488894463</v>
+        <v>37938.45223388076</v>
       </c>
       <c r="D15" t="n">
         <v>28167.50549800204</v>
@@ -751,7 +751,7 @@
         <v>22809.00448685582</v>
       </c>
       <c r="F15" t="n">
-        <v>34044.01283709541</v>
+        <v>34786.53345830711</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39940.4793830812</v>
+        <v>39979.43578442931</v>
       </c>
       <c r="C16" t="n">
-        <v>38274.57071185112</v>
+        <v>39394.56922608614</v>
       </c>
       <c r="D16" t="n">
         <v>30740.73802683467</v>
@@ -771,7 +771,7 @@
         <v>26032.21215153513</v>
       </c>
       <c r="F16" t="n">
-        <v>36732.2369843685</v>
+        <v>37076.71597664175</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>36698.40399804711</v>
+        <v>36030.56346559525</v>
       </c>
       <c r="C17" t="n">
-        <v>38846.17787030339</v>
+        <v>38087.20464479923</v>
       </c>
       <c r="D17" t="n">
         <v>35851.01260806032</v>
@@ -791,7 +791,7 @@
         <v>30567.10141821986</v>
       </c>
       <c r="F17" t="n">
-        <v>37070.5654590563</v>
+        <v>36377.03701719497</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>40334.42796719074</v>
+        <v>38724.54184088111</v>
       </c>
       <c r="C18" t="n">
-        <v>40397.32615891099</v>
+        <v>38644.283159554</v>
       </c>
       <c r="D18" t="n">
         <v>37926.900149457</v>
@@ -811,7 +811,7 @@
         <v>33074.34895645222</v>
       </c>
       <c r="F18" t="n">
-        <v>39552.58075000137</v>
+        <v>38290.94983659212</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>44650.48708671331</v>
+        <v>41318.66579329967</v>
       </c>
       <c r="C19" t="n">
-        <v>40699.11677753925</v>
+        <v>44193.84971141815</v>
       </c>
       <c r="D19" t="n">
         <v>28801.41803231407</v>
@@ -831,7 +831,7 @@
         <v>21704.34035468017</v>
       </c>
       <c r="F19" t="n">
-        <v>38766.83228456085</v>
+        <v>38433.1609451968</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>45375.39025259018</v>
+        <v>44542.24478960037</v>
       </c>
       <c r="C20" t="n">
-        <v>44195.05080127716</v>
+        <v>44636.67257785797</v>
       </c>
       <c r="D20" t="n">
         <v>20840.80453168031</v>
@@ -851,7 +851,7 @@
         <v>14203.76924652807</v>
       </c>
       <c r="F20" t="n">
-        <v>38199.33722449026</v>
+        <v>37776.41802746432</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>44026.04086410999</v>
+        <v>43855.76662182808</v>
       </c>
       <c r="C21" t="n">
-        <v>45961.47469234467</v>
+        <v>46312.70853060484</v>
       </c>
       <c r="D21" t="n">
         <v>26747.47021958463</v>
@@ -871,7 +871,7 @@
         <v>19255.29824495617</v>
       </c>
       <c r="F21" t="n">
-        <v>39877.05676489169</v>
+        <v>39566.59801911983</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>45108.02330392599</v>
+        <v>43869.76485002041</v>
       </c>
       <c r="C22" t="n">
-        <v>41862.62319153547</v>
+        <v>39853.98017072678</v>
       </c>
       <c r="D22" t="n">
         <v>33950.19626739908</v>
@@ -891,7 +891,7 @@
         <v>22955.66076581013</v>
       </c>
       <c r="F22" t="n">
-        <v>40595.14870672981</v>
+        <v>39526.96256979003</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>38607.81684663892</v>
+        <v>38476.6965533793</v>
       </c>
       <c r="C23" t="n">
-        <v>38518.59641507268</v>
+        <v>37172.49668583274</v>
       </c>
       <c r="D23" t="n">
         <v>36482.76547242946</v>
@@ -911,7 +911,7 @@
         <v>27718.15186696986</v>
       </c>
       <c r="F23" t="n">
-        <v>37713.60227533646</v>
+        <v>37201.12778731134</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>39277.11429318786</v>
+        <v>35790.8709706068</v>
       </c>
       <c r="C24" t="n">
-        <v>38871.08468106389</v>
+        <v>38661.6594529748</v>
       </c>
       <c r="D24" t="n">
         <v>31108.98172909446</v>
@@ -931,7 +931,7 @@
         <v>20376.57660431757</v>
       </c>
       <c r="F24" t="n">
-        <v>36594.66761276348</v>
+        <v>34921.44455476989</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>39322.63816696405</v>
+        <v>38938.51757964492</v>
       </c>
       <c r="C25" t="n">
-        <v>38896.26015666127</v>
+        <v>38910.51124587655</v>
       </c>
       <c r="D25" t="n">
         <v>30460.30550008851</v>
@@ -951,7 +951,7 @@
         <v>16022.94496392362</v>
       </c>
       <c r="F25" t="n">
-        <v>36322.74566952667</v>
+        <v>36027.41335895852</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>41342.80019265413</v>
+        <v>40175.81397637725</v>
       </c>
       <c r="C26" t="n">
-        <v>40479.60575294495</v>
+        <v>40944.75249430537</v>
       </c>
       <c r="D26" t="n">
         <v>40370.13995118008</v>
@@ -971,7 +971,7 @@
         <v>23270.38047470125</v>
       </c>
       <c r="F26" t="n">
-        <v>40192.94320315283</v>
+        <v>39784.6647962909</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>39356.95713666081</v>
+        <v>39384.11401543021</v>
       </c>
       <c r="C27" t="n">
-        <v>40381.91842806339</v>
+        <v>40493.53483945131</v>
       </c>
       <c r="D27" t="n">
         <v>26968.15824804631</v>
@@ -991,7 +991,7 @@
         <v>15292.88215569458</v>
       </c>
       <c r="F27" t="n">
-        <v>36037.49665229886</v>
+        <v>35829.33204851914</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>39077.86277031898</v>
+        <v>38920.49234211445</v>
       </c>
       <c r="C28" t="n">
-        <v>38772.39480173588</v>
+        <v>39546.53474992514</v>
       </c>
       <c r="D28" t="n">
         <v>29541.39077687894</v>
@@ -1011,7 +1011,7 @@
         <v>18836.77849978202</v>
       </c>
       <c r="F28" t="n">
-        <v>36068.82604188978</v>
+        <v>36099.13502917947</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37226.34126764536</v>
+        <v>33291.91561022401</v>
       </c>
       <c r="C29" t="n">
-        <v>33268.41928985715</v>
+        <v>34528.51960235834</v>
       </c>
       <c r="D29" t="n">
         <v>34651.66535810458</v>
@@ -1031,7 +1031,7 @@
         <v>24493.84823356891</v>
       </c>
       <c r="F29" t="n">
-        <v>34766.75518973574</v>
+        <v>33631.22550171901</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>32150.00708344579</v>
+        <v>32322.69832152128</v>
       </c>
       <c r="C30" t="n">
-        <v>32887.65009883046</v>
+        <v>32429.61211052537</v>
       </c>
       <c r="D30" t="n">
         <v>36727.55289950126</v>
@@ -1051,7 +1051,7 @@
         <v>27364.17225212542</v>
       </c>
       <c r="F30" t="n">
-        <v>33316.88317637087</v>
+        <v>33201.28548651712</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>36335.08715629578</v>
+        <v>35990.35757520795</v>
       </c>
       <c r="C31" t="n">
-        <v>33142.33152359724</v>
+        <v>36730.57167357206</v>
       </c>
       <c r="D31" t="n">
         <v>27602.07078235833</v>
@@ -1071,7 +1071,7 @@
         <v>15685.65458531638</v>
       </c>
       <c r="F31" t="n">
-        <v>32454.85948126805</v>
+        <v>33428.10606489885</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>35940.19231882691</v>
+        <v>33041.742223382</v>
       </c>
       <c r="C32" t="n">
-        <v>32786.81090080738</v>
+        <v>34054.95634233952</v>
       </c>
       <c r="D32" t="n">
         <v>19641.45728172457</v>
@@ -1091,7 +1091,7 @@
         <v>6864.89963429511</v>
       </c>
       <c r="F32" t="n">
-        <v>30033.09460574553</v>
+        <v>29144.25365435289</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33746.47478398681</v>
+        <v>33915.28322252631</v>
       </c>
       <c r="C33" t="n">
-        <v>33151.67157763243</v>
+        <v>34102.67101982236</v>
       </c>
       <c r="D33" t="n">
         <v>25548.12296962889</v>
@@ -1111,7 +1111,7 @@
         <v>12243.16008452258</v>
       </c>
       <c r="F33" t="n">
-        <v>30900.61924971186</v>
+        <v>31142.33169258763</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>33483.00742641091</v>
+        <v>35655.42339554429</v>
       </c>
       <c r="C34" t="n">
-        <v>37089.93459862471</v>
+        <v>33574.01072573662</v>
       </c>
       <c r="D34" t="n">
         <v>32750.84901744334</v>
@@ -1131,7 +1131,7 @@
         <v>17281.27760985001</v>
       </c>
       <c r="F34" t="n">
-        <v>34068.36145947547</v>
+        <v>33638.14779815183</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>29012.09908087552</v>
+        <v>30458.99454765022</v>
       </c>
       <c r="C35" t="n">
-        <v>29824.71292021871</v>
+        <v>30402.51270438731</v>
       </c>
       <c r="D35" t="n">
         <v>35283.41822247372</v>
@@ -1151,7 +1151,7 @@
         <v>21490.29922244512</v>
       </c>
       <c r="F35" t="n">
-        <v>30506.48313405485</v>
+        <v>31231.71183054039</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29678.97409906983</v>
+        <v>28755.49156628549</v>
       </c>
       <c r="C36" t="n">
-        <v>31335.74569649994</v>
+        <v>30083.77891561389</v>
       </c>
       <c r="D36" t="n">
         <v>29909.63447913872</v>
@@ -1171,7 +1171,7 @@
         <v>13131.1951432342</v>
       </c>
       <c r="F36" t="n">
-        <v>29771.02265885482</v>
+        <v>28805.52810772061</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>32694.6800981313</v>
+        <v>28874.46860401332</v>
       </c>
       <c r="C37" t="n">
-        <v>31288.0073132962</v>
+        <v>32257.3851094842</v>
       </c>
       <c r="D37" t="n">
         <v>29260.95825013277</v>
@@ -1191,7 +1191,7 @@
         <v>9567.939870700746</v>
       </c>
       <c r="F37" t="n">
-        <v>30606.03898132042</v>
+        <v>29201.13690999679</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32675.4374730587</v>
+        <v>33174.83898112178</v>
       </c>
       <c r="C38" t="n">
-        <v>34585.90720170736</v>
+        <v>33118.48751932383</v>
       </c>
       <c r="D38" t="n">
         <v>39170.79270122434</v>
@@ -1211,7 +1211,7 @@
         <v>18041.17629654186</v>
       </c>
       <c r="F38" t="n">
-        <v>34377.8267892252</v>
+        <v>33982.99306956143</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>33114.59286692739</v>
+        <v>32806.85310009122</v>
       </c>
       <c r="C39" t="n">
-        <v>33252.02777159214</v>
+        <v>32819.2205722332</v>
       </c>
       <c r="D39" t="n">
         <v>25768.81099809057</v>
@@ -1231,7 +1231,7 @@
         <v>7752.963213589366</v>
       </c>
       <c r="F39" t="n">
-        <v>30600.63572689971</v>
+        <v>30164.32472596485</v>
       </c>
     </row>
   </sheetData>
@@ -1458,19 +1458,19 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>12931.48916119057</v>
+        <v>12189.06904650351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3362069254497715</v>
+        <v>0.3212748878385285</v>
       </c>
       <c r="M2" t="n">
-        <v>11173.8636445721</v>
+        <v>10680.65005579789</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.475262082548655</v>
+        <v>-2.976147327248313</v>
       </c>
       <c r="O2" t="n">
-        <v>51485.99984848499</v>
+        <v>50951.91694140434</v>
       </c>
       <c r="P2" t="n">
         <v>32859</v>
@@ -1479,19 +1479,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>9430.870646303136</v>
+        <v>10775.5202284445</v>
       </c>
       <c r="S2" t="n">
-        <v>5584.761288456935</v>
+        <v>5995.42355339593</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1170954060314894</v>
+        <v>0.1248338017007443</v>
       </c>
       <c r="U2" t="n">
-        <v>4310.371463429443</v>
+        <v>4673.849253490914</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3206450714246619</v>
+        <v>0.2170622369770198</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1502,16 +1502,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>12931.48916119057</v>
+        <v>12189.06904650351</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3362069254497715</v>
+        <v>0.3212748878385285</v>
       </c>
       <c r="AE2" t="n">
-        <v>11173.8636445721</v>
+        <v>10680.65005579789</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.475262082548655</v>
+        <v>-2.976147327248313</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1520,34 +1520,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>50</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1555,19 +1549,19 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>12957.59272506412</v>
+        <v>12740.91851685518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.339194942855304</v>
+        <v>0.3388083558620113</v>
       </c>
       <c r="M3" t="n">
-        <v>11344.09905489683</v>
+        <v>11332.68126652242</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.493347887695109</v>
+        <v>-3.344330626789086</v>
       </c>
       <c r="O3" t="n">
-        <v>51685.32820677757</v>
+        <v>49666.48842719231</v>
       </c>
       <c r="P3" t="n">
         <v>32859</v>
@@ -1576,39 +1570,45 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>11478.5752899682</v>
+        <v>9367.716106071499</v>
       </c>
       <c r="S3" t="n">
-        <v>5819.408592217365</v>
+        <v>4537.661415844118</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1226661091530477</v>
+        <v>0.09594676243951418</v>
       </c>
       <c r="U3" t="n">
-        <v>4562.948751032699</v>
+        <v>3563.832922761385</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2623587364942278</v>
+        <v>0.5515111238907185</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['lstm_reg', 'lstm', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>(0.4311211213407548, 0.2932251166996063, 0.23646093274684293, 0.03919282921279589)</t>
+        </is>
+      </c>
       <c r="AC3" t="n">
-        <v>12957.59272506412</v>
+        <v>12740.91851685518</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.339194942855304</v>
+        <v>0.3388083558620113</v>
       </c>
       <c r="AE3" t="n">
-        <v>11344.09905489683</v>
+        <v>11332.68126652242</v>
       </c>
       <c r="AF3" t="n">
-        <v>-3.493347887695109</v>
+        <v>-3.344330626789086</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1617,28 +1617,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>{'lags': 6, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1646,19 +1652,19 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>12823.19026740352</v>
+        <v>13703.07594062586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3405249260766453</v>
+        <v>0.3588232877227174</v>
       </c>
       <c r="M4" t="n">
-        <v>11415.39695808851</v>
+        <v>11933.22765728235</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.400616938132285</v>
+        <v>-4.025248268084212</v>
       </c>
       <c r="O4" t="n">
-        <v>50039.36620619956</v>
+        <v>51398.4351079464</v>
       </c>
       <c r="P4" t="n">
         <v>32859</v>
@@ -1667,45 +1673,39 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>8960.93143247773</v>
+        <v>10601.10813485245</v>
       </c>
       <c r="S4" t="n">
-        <v>4509.535926167139</v>
+        <v>5456.050212770642</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09480543854694436</v>
+        <v>0.11332081103099</v>
       </c>
       <c r="U4" t="n">
-        <v>3509.139251730706</v>
+        <v>4183.078217283238</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5570535722723626</v>
+        <v>0.3515981903517743</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>['lstm_reg', 'lstm', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>(0.37254611904971624, 0.36152097904004177, 0.23206507290572237, 0.03386782900451966)</t>
-        </is>
-      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>12823.19026740352</v>
+        <v>13703.07594062586</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3405249260766453</v>
+        <v>0.3588232877227174</v>
       </c>
       <c r="AE4" t="n">
-        <v>11415.39695808851</v>
+        <v>11933.22765728235</v>
       </c>
       <c r="AF4" t="n">
-        <v>-3.400616938132285</v>
+        <v>-4.025248268084212</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>10621.35778919494</v>
+        <v>10513.18214626726</v>
       </c>
       <c r="S5" t="n">
         <v>6853.200297334472</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>4925.9700815557</v>
+        <v>4272.502876573077</v>
       </c>
       <c r="S6" t="n">
         <v>2223.913349845943</v>
@@ -2588,7 +2588,7 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>33013.61341005564</v>
+        <v>32944.06872683764</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>33062.24174553156</v>
+        <v>32736.74836921692</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>32644.231854707</v>
+        <v>34474.25621947646</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>35210.29119679332</v>
+        <v>33419.28150993586</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>33747.27781528234</v>
+        <v>33857.88969674706</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>35803.7708337307</v>
+        <v>35454.77817383409</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>37066.54396626353</v>
+        <v>37806.82720631361</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>39855.34423741698</v>
+        <v>38930.88433751464</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>36738.54173448682</v>
+        <v>37005.46123766899</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>33084.06088614464</v>
+        <v>31623.29263395071</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>32283.37250602245</v>
+        <v>32609.18986052275</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>36747.61806237698</v>
+        <v>36339.22182911634</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>36726.66516831517</v>
+        <v>36820.24942800403</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>36389.15200376511</v>
+        <v>37362.03478956223</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>39940.4793830812</v>
+        <v>39979.43578442931</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>36698.40399804711</v>
+        <v>36030.56346559525</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>40334.42796719074</v>
+        <v>38724.54184088111</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>44650.48708671331</v>
+        <v>41318.66579329967</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>45375.39025259018</v>
+        <v>44542.24478960037</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>44026.04086410999</v>
+        <v>43855.76662182808</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>45108.02330392599</v>
+        <v>43869.76485002041</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>38607.81684663892</v>
+        <v>38476.6965533793</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>39277.11429318786</v>
+        <v>35790.8709706068</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>39322.63816696405</v>
+        <v>38938.51757964492</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>41342.80019265413</v>
+        <v>40175.81397637725</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>39356.95713666081</v>
+        <v>39384.11401543021</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>39077.86277031898</v>
+        <v>38920.49234211445</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>37226.34126764536</v>
+        <v>33291.91561022401</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>32150.00708344579</v>
+        <v>32322.69832152128</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>36335.08715629578</v>
+        <v>35990.35757520795</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>35940.19231882691</v>
+        <v>33041.742223382</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>33746.47478398681</v>
+        <v>33915.28322252631</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>33483.00742641091</v>
+        <v>35655.42339554429</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>29012.09908087552</v>
+        <v>30458.99454765022</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>29678.97409906983</v>
+        <v>28755.49156628549</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>32694.6800981313</v>
+        <v>28874.46860401332</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>32675.4374730587</v>
+        <v>33174.83898112178</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>33114.59286692739</v>
+        <v>32806.85310009122</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3141,13 +3141,13 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>41168.79970240593</v>
+        <v>40153.5362278223</v>
       </c>
       <c r="D2" t="n">
-        <v>40038.74844872952</v>
+        <v>44755.94532436175</v>
       </c>
       <c r="E2" t="n">
-        <v>44343.83202320285</v>
+        <v>42121.24106681347</v>
       </c>
       <c r="F2" t="n">
         <v>53678.12793524702</v>
@@ -3164,13 +3164,13 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>40958.26574629545</v>
+        <v>39813.2082092762</v>
       </c>
       <c r="D3" t="n">
-        <v>43457.21461677551</v>
+        <v>41715.70772366352</v>
       </c>
       <c r="E3" t="n">
-        <v>42769.87636563362</v>
+        <v>42013.45224732161</v>
       </c>
       <c r="F3" t="n">
         <v>44363.79056071245</v>
@@ -3187,13 +3187,13 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>41565.48252058029</v>
+        <v>41006.38883090019</v>
       </c>
       <c r="D4" t="n">
-        <v>39436.49155974388</v>
+        <v>40381.95209123831</v>
       </c>
       <c r="E4" t="n">
-        <v>40576.43539135475</v>
+        <v>39100.16720306873</v>
       </c>
       <c r="F4" t="n">
         <v>40497.81803975926</v>
@@ -3210,13 +3210,13 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>42195.77807784081</v>
+        <v>41953.0872682333</v>
       </c>
       <c r="D5" t="n">
-        <v>41774.64312756062</v>
+        <v>44877.0895081621</v>
       </c>
       <c r="E5" t="n">
-        <v>44688.94072722154</v>
+        <v>42350.20583379269</v>
       </c>
       <c r="F5" t="n">
         <v>52188.72662288513</v>
@@ -3233,13 +3233,13 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>44420.65208506584</v>
+        <v>43888.38851642609</v>
       </c>
       <c r="D6" t="n">
-        <v>43285.62697982788</v>
+        <v>44275.47345215388</v>
       </c>
       <c r="E6" t="n">
-        <v>44158.18405739337</v>
+        <v>44181.91093444824</v>
       </c>
       <c r="F6" t="n">
         <v>44944.78021640424</v>
@@ -3256,13 +3256,13 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>41960.46704125404</v>
+        <v>42261.98933434486</v>
       </c>
       <c r="D7" t="n">
-        <v>40253.11847156286</v>
+        <v>44194.32861972447</v>
       </c>
       <c r="E7" t="n">
-        <v>43611.22930835819</v>
+        <v>41119.86191916466</v>
       </c>
       <c r="F7" t="n">
         <v>50506.19311538591</v>
@@ -3279,13 +3279,13 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>46847.82647120953</v>
+        <v>46148.36439633369</v>
       </c>
       <c r="D8" t="n">
-        <v>46178.8127104044</v>
+        <v>51452.7658914245</v>
       </c>
       <c r="E8" t="n">
-        <v>49915.77721978819</v>
+        <v>51865.49857747555</v>
       </c>
       <c r="F8" t="n">
         <v>59157.22382850799</v>
@@ -3302,13 +3302,13 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>45404.48960721493</v>
+        <v>46223.59785830975</v>
       </c>
       <c r="D9" t="n">
-        <v>48645.69969797134</v>
+        <v>52472.39149681113</v>
       </c>
       <c r="E9" t="n">
-        <v>51503.57501825837</v>
+        <v>50839.78647649288</v>
       </c>
       <c r="F9" t="n">
         <v>63510.09396525913</v>
@@ -3325,13 +3325,13 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>45432.73683834076</v>
+        <v>44410.22021818161</v>
       </c>
       <c r="D10" t="n">
-        <v>48896.435074687</v>
+        <v>46807.23192187158</v>
       </c>
       <c r="E10" t="n">
-        <v>48079.48612311478</v>
+        <v>46695.93126416206</v>
       </c>
       <c r="F10" t="n">
         <v>50695.50359534775</v>
@@ -3348,13 +3348,13 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>45485.2015683651</v>
+        <v>45747.25520408154</v>
       </c>
       <c r="D11" t="n">
-        <v>45950.1291308403</v>
+        <v>44880.01593392684</v>
       </c>
       <c r="E11" t="n">
-        <v>44047.6938536939</v>
+        <v>48736.93291008472</v>
       </c>
       <c r="F11" t="n">
         <v>39677.36852016934</v>
@@ -3371,13 +3371,13 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>48937.38229370117</v>
+        <v>48119.24609446526</v>
       </c>
       <c r="D12" t="n">
-        <v>48196.93389427662</v>
+        <v>48086.38902054311</v>
       </c>
       <c r="E12" t="n">
-        <v>47459.08627445069</v>
+        <v>51499.36649262905</v>
       </c>
       <c r="F12" t="n">
         <v>44218.51503998814</v>
@@ -3394,13 +3394,13 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>52552.63123595715</v>
+        <v>51807.38030445576</v>
       </c>
       <c r="D13" t="n">
-        <v>49437.55511581898</v>
+        <v>50605.11504596268</v>
       </c>
       <c r="E13" t="n">
-        <v>50685.04611635036</v>
+        <v>49590.41865038872</v>
       </c>
       <c r="F13" t="n">
         <v>49425.17397693053</v>
@@ -3417,13 +3417,13 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>54013.62704205513</v>
+        <v>51285.66591930389</v>
       </c>
       <c r="D14" t="n">
-        <v>54428.29281961918</v>
+        <v>54816.87137587008</v>
       </c>
       <c r="E14" t="n">
-        <v>55894.54067907334</v>
+        <v>54436.92769408226</v>
       </c>
       <c r="F14" t="n">
         <v>58624.30191217755</v>
@@ -3440,13 +3440,13 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>53863.30164289474</v>
+        <v>50318.16892409325</v>
       </c>
       <c r="D15" t="n">
-        <v>54170.23912143707</v>
+        <v>51139.34381365358</v>
       </c>
       <c r="E15" t="n">
-        <v>52770.5490536399</v>
+        <v>54038.17228257656</v>
       </c>
       <c r="F15" t="n">
         <v>49309.96453764298</v>
@@ -3463,13 +3463,13 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>51485.99984848499</v>
+        <v>50951.91694140434</v>
       </c>
       <c r="D16" t="n">
-        <v>51685.32820677757</v>
+        <v>49666.48842719231</v>
       </c>
       <c r="E16" t="n">
-        <v>50039.36620619956</v>
+        <v>51398.4351079464</v>
       </c>
       <c r="F16" t="n">
         <v>45443.99201668979</v>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3542,13 +3542,13 @@
         <v>49650</v>
       </c>
       <c r="C2" t="n">
-        <v>41168.79970240593</v>
+        <v>40153.5362278223</v>
       </c>
       <c r="D2" t="n">
-        <v>40038.74844872952</v>
+        <v>44755.94532436175</v>
       </c>
       <c r="E2" t="n">
-        <v>44343.83202320285</v>
+        <v>42121.24106681347</v>
       </c>
       <c r="F2" t="n">
         <v>53678.12793524702</v>
@@ -3565,13 +3565,13 @@
         <v>41004</v>
       </c>
       <c r="C3" t="n">
-        <v>40958.26574629545</v>
+        <v>39813.2082092762</v>
       </c>
       <c r="D3" t="n">
-        <v>43457.21461677551</v>
+        <v>41715.70772366352</v>
       </c>
       <c r="E3" t="n">
-        <v>42769.87636563362</v>
+        <v>42013.45224732161</v>
       </c>
       <c r="F3" t="n">
         <v>44363.79056071245</v>
@@ -3588,13 +3588,13 @@
         <v>34182</v>
       </c>
       <c r="C4" t="n">
-        <v>41565.48252058029</v>
+        <v>41006.38883090019</v>
       </c>
       <c r="D4" t="n">
-        <v>39436.49155974388</v>
+        <v>40381.95209123831</v>
       </c>
       <c r="E4" t="n">
-        <v>40576.43539135475</v>
+        <v>39100.16720306873</v>
       </c>
       <c r="F4" t="n">
         <v>40497.81803975926</v>
@@ -3611,13 +3611,13 @@
         <v>44289</v>
       </c>
       <c r="C5" t="n">
-        <v>42195.77807784081</v>
+        <v>41953.0872682333</v>
       </c>
       <c r="D5" t="n">
-        <v>41774.64312756062</v>
+        <v>44877.0895081621</v>
       </c>
       <c r="E5" t="n">
-        <v>44688.94072722154</v>
+        <v>42350.20583379269</v>
       </c>
       <c r="F5" t="n">
         <v>52188.72662288513</v>
@@ -3634,13 +3634,13 @@
         <v>31632</v>
       </c>
       <c r="C6" t="n">
-        <v>44420.65208506584</v>
+        <v>43888.38851642609</v>
       </c>
       <c r="D6" t="n">
-        <v>43285.62697982788</v>
+        <v>44275.47345215388</v>
       </c>
       <c r="E6" t="n">
-        <v>44158.18405739337</v>
+        <v>44181.91093444824</v>
       </c>
       <c r="F6" t="n">
         <v>44944.78021640424</v>
@@ -3657,13 +3657,13 @@
         <v>34553</v>
       </c>
       <c r="C7" t="n">
-        <v>41960.46704125404</v>
+        <v>42261.98933434486</v>
       </c>
       <c r="D7" t="n">
-        <v>40253.11847156286</v>
+        <v>44194.32861972447</v>
       </c>
       <c r="E7" t="n">
-        <v>43611.22930835819</v>
+        <v>41119.86191916466</v>
       </c>
       <c r="F7" t="n">
         <v>50506.19311538591</v>
@@ -3680,13 +3680,13 @@
         <v>40074</v>
       </c>
       <c r="C8" t="n">
-        <v>46847.82647120953</v>
+        <v>46148.36439633369</v>
       </c>
       <c r="D8" t="n">
-        <v>46178.8127104044</v>
+        <v>51452.7658914245</v>
       </c>
       <c r="E8" t="n">
-        <v>49915.77721978819</v>
+        <v>51865.49857747555</v>
       </c>
       <c r="F8" t="n">
         <v>59157.22382850799</v>
@@ -3703,13 +3703,13 @@
         <v>42421</v>
       </c>
       <c r="C9" t="n">
-        <v>45404.48960721493</v>
+        <v>46223.59785830975</v>
       </c>
       <c r="D9" t="n">
-        <v>48645.69969797134</v>
+        <v>52472.39149681113</v>
       </c>
       <c r="E9" t="n">
-        <v>51503.57501825837</v>
+        <v>50839.78647649288</v>
       </c>
       <c r="F9" t="n">
         <v>63510.09396525913</v>
@@ -3726,13 +3726,13 @@
         <v>32851</v>
       </c>
       <c r="C10" t="n">
-        <v>45432.73683834076</v>
+        <v>44410.22021818161</v>
       </c>
       <c r="D10" t="n">
-        <v>48896.435074687</v>
+        <v>46807.23192187158</v>
       </c>
       <c r="E10" t="n">
-        <v>48079.48612311478</v>
+        <v>46695.93126416206</v>
       </c>
       <c r="F10" t="n">
         <v>50695.50359534775</v>
@@ -3749,13 +3749,13 @@
         <v>24534</v>
       </c>
       <c r="C11" t="n">
-        <v>45485.2015683651</v>
+        <v>45747.25520408154</v>
       </c>
       <c r="D11" t="n">
-        <v>45950.1291308403</v>
+        <v>44880.01593392684</v>
       </c>
       <c r="E11" t="n">
-        <v>44047.6938536939</v>
+        <v>48736.93291008472</v>
       </c>
       <c r="F11" t="n">
         <v>39677.36852016934</v>
@@ -3772,13 +3772,13 @@
         <v>30290</v>
       </c>
       <c r="C12" t="n">
-        <v>48937.38229370117</v>
+        <v>48119.24609446526</v>
       </c>
       <c r="D12" t="n">
-        <v>48196.93389427662</v>
+        <v>48086.38902054311</v>
       </c>
       <c r="E12" t="n">
-        <v>47459.08627445069</v>
+        <v>51499.36649262905</v>
       </c>
       <c r="F12" t="n">
         <v>44218.51503998814</v>
@@ -3795,13 +3795,13 @@
         <v>37257</v>
       </c>
       <c r="C13" t="n">
-        <v>52552.63123595715</v>
+        <v>51807.38030445576</v>
       </c>
       <c r="D13" t="n">
-        <v>49437.55511581898</v>
+        <v>50605.11504596268</v>
       </c>
       <c r="E13" t="n">
-        <v>50685.04611635036</v>
+        <v>49590.41865038872</v>
       </c>
       <c r="F13" t="n">
         <v>49425.17397693053</v>
@@ -3818,13 +3818,13 @@
         <v>40040</v>
       </c>
       <c r="C14" t="n">
-        <v>54013.62704205513</v>
+        <v>51285.66591930389</v>
       </c>
       <c r="D14" t="n">
-        <v>54428.29281961918</v>
+        <v>54816.87137587008</v>
       </c>
       <c r="E14" t="n">
-        <v>55894.54067907334</v>
+        <v>54436.92769408226</v>
       </c>
       <c r="F14" t="n">
         <v>58624.30191217755</v>
@@ -3841,13 +3841,13 @@
         <v>34289</v>
       </c>
       <c r="C15" t="n">
-        <v>53863.30164289474</v>
+        <v>50318.16892409325</v>
       </c>
       <c r="D15" t="n">
-        <v>54170.23912143707</v>
+        <v>51139.34381365358</v>
       </c>
       <c r="E15" t="n">
-        <v>52770.5490536399</v>
+        <v>54038.17228257656</v>
       </c>
       <c r="F15" t="n">
         <v>49309.96453764298</v>
@@ -3864,13 +3864,13 @@
         <v>32859</v>
       </c>
       <c r="C16" t="n">
-        <v>51485.99984848499</v>
+        <v>50951.91694140434</v>
       </c>
       <c r="D16" t="n">
-        <v>51685.32820677757</v>
+        <v>49666.48842719231</v>
       </c>
       <c r="E16" t="n">
-        <v>50039.36620619956</v>
+        <v>51398.4351079464</v>
       </c>
       <c r="F16" t="n">
         <v>45443.99201668979</v>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3935,13 +3935,13 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>33013.61341005564</v>
+        <v>32944.06872683764</v>
       </c>
       <c r="C2" t="n">
-        <v>33801.9491341114</v>
+        <v>35521.09479952489</v>
       </c>
       <c r="D2" t="n">
-        <v>35584.50415306971</v>
+        <v>33713.49913847446</v>
       </c>
       <c r="E2" t="n">
         <v>42768.83445109156</v>
@@ -3955,13 +3955,13 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>33062.24174553156</v>
+        <v>32736.74836921692</v>
       </c>
       <c r="C3" t="n">
-        <v>32212.02618801594</v>
+        <v>31844.72195893741</v>
       </c>
       <c r="D3" t="n">
-        <v>31803.75657169494</v>
+        <v>32737.82846112549</v>
       </c>
       <c r="E3" t="n">
         <v>29366.85274795779</v>
@@ -3975,13 +3975,13 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>32644.231854707</v>
+        <v>34474.25621947646</v>
       </c>
       <c r="C4" t="n">
-        <v>34468.53622657061</v>
+        <v>33649.28342776649</v>
       </c>
       <c r="D4" t="n">
-        <v>33160.79171375209</v>
+        <v>33868.32515263557</v>
       </c>
       <c r="E4" t="n">
         <v>31940.08527679042</v>
@@ -3995,13 +3995,13 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>35210.29119679332</v>
+        <v>33419.28150993586</v>
       </c>
       <c r="C5" t="n">
-        <v>32155.43766900897</v>
+        <v>34593.08646680107</v>
       </c>
       <c r="D5" t="n">
-        <v>34582.18553642182</v>
+        <v>34060.36816087365</v>
       </c>
       <c r="E5" t="n">
         <v>37050.35985801607</v>
@@ -4015,13 +4015,13 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>33747.27781528234</v>
+        <v>33857.88969674706</v>
       </c>
       <c r="C6" t="n">
-        <v>33416.43089699745</v>
+        <v>35202.79387867016</v>
       </c>
       <c r="D6" t="n">
-        <v>35046.40897775679</v>
+        <v>33538.02544140816</v>
       </c>
       <c r="E6" t="n">
         <v>39126.24739941274</v>
@@ -4035,13 +4035,13 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>35803.7708337307</v>
+        <v>35454.77817383409</v>
       </c>
       <c r="C7" t="n">
-        <v>35918.5608485043</v>
+        <v>34298.57186057742</v>
       </c>
       <c r="D7" t="n">
-        <v>34224.05974980894</v>
+        <v>36946.72636318207</v>
       </c>
       <c r="E7" t="n">
         <v>30000.76528226981</v>
@@ -4055,13 +4055,13 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>37066.54396626353</v>
+        <v>37806.82720631361</v>
       </c>
       <c r="C8" t="n">
-        <v>36360.64686211944</v>
+        <v>33273.22784805063</v>
       </c>
       <c r="D8" t="n">
-        <v>32798.04969920164</v>
+        <v>37235.75540205836</v>
       </c>
       <c r="E8" t="n">
         <v>22040.15178163605</v>
@@ -4075,13 +4075,13 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>39855.34423741698</v>
+        <v>38930.88433751464</v>
       </c>
       <c r="C9" t="n">
-        <v>36992.72632685304</v>
+        <v>35516.93546208148</v>
       </c>
       <c r="D9" t="n">
-        <v>35597.42632879813</v>
+        <v>37835.58817219734</v>
       </c>
       <c r="E9" t="n">
         <v>27946.81746954036</v>
@@ -4095,13 +4095,13 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>36738.54173448682</v>
+        <v>37005.46123766899</v>
       </c>
       <c r="C10" t="n">
-        <v>36049.18134614825</v>
+        <v>36828.0468457879</v>
       </c>
       <c r="D10" t="n">
-        <v>35846.38231170209</v>
+        <v>39014.83814808726</v>
       </c>
       <c r="E10" t="n">
         <v>35149.54351735482</v>
@@ -4115,13 +4115,13 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>33084.06088614464</v>
+        <v>31623.29263395071</v>
       </c>
       <c r="C11" t="n">
-        <v>31615.88805325329</v>
+        <v>33785.35174892498</v>
       </c>
       <c r="D11" t="n">
-        <v>33648.86611842288</v>
+        <v>33802.89341199398</v>
       </c>
       <c r="E11" t="n">
         <v>37682.11272238519</v>
@@ -4135,13 +4135,13 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>32283.37250602245</v>
+        <v>32609.18986052275</v>
       </c>
       <c r="C12" t="n">
-        <v>33549.23923513293</v>
+        <v>32710.38819292042</v>
       </c>
       <c r="D12" t="n">
-        <v>32588.90436160184</v>
+        <v>33863.62845668197</v>
       </c>
       <c r="E12" t="n">
         <v>32308.32897905019</v>
@@ -4155,13 +4155,13 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>36747.61806237698</v>
+        <v>36339.22182911634</v>
       </c>
       <c r="C13" t="n">
-        <v>36465.32046049833</v>
+        <v>34752.70774443019</v>
       </c>
       <c r="D13" t="n">
-        <v>34982.36186894637</v>
+        <v>36551.79695487022</v>
       </c>
       <c r="E13" t="n">
         <v>31659.65275004424</v>
@@ -4175,13 +4175,13 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>36726.66516831517</v>
+        <v>36820.24942800403</v>
       </c>
       <c r="C14" t="n">
-        <v>37206.45216780901</v>
+        <v>37837.37026858094</v>
       </c>
       <c r="D14" t="n">
-        <v>37744.59571479756</v>
+        <v>37574.20000389218</v>
       </c>
       <c r="E14" t="n">
         <v>41569.48720113581</v>
@@ -4195,13 +4195,13 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>36389.15200376511</v>
+        <v>37362.03478956223</v>
       </c>
       <c r="C15" t="n">
-        <v>36452.07488894463</v>
+        <v>34786.53345830711</v>
       </c>
       <c r="D15" t="n">
-        <v>34044.01283709541</v>
+        <v>37938.45223388076</v>
       </c>
       <c r="E15" t="n">
         <v>28167.50549800204</v>
@@ -4215,13 +4215,13 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>39940.4793830812</v>
+        <v>39979.43578442931</v>
       </c>
       <c r="C16" t="n">
-        <v>38274.57071185112</v>
+        <v>37076.71597664175</v>
       </c>
       <c r="D16" t="n">
-        <v>36732.2369843685</v>
+        <v>39394.56922608614</v>
       </c>
       <c r="E16" t="n">
         <v>30740.73802683467</v>
@@ -4235,13 +4235,13 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>36698.40399804711</v>
+        <v>36030.56346559525</v>
       </c>
       <c r="C17" t="n">
-        <v>38846.17787030339</v>
+        <v>36377.03701719497</v>
       </c>
       <c r="D17" t="n">
-        <v>37070.5654590563</v>
+        <v>38087.20464479923</v>
       </c>
       <c r="E17" t="n">
         <v>35851.01260806032</v>
@@ -4255,13 +4255,13 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>40334.42796719074</v>
+        <v>38724.54184088111</v>
       </c>
       <c r="C18" t="n">
-        <v>40397.32615891099</v>
+        <v>38290.94983659212</v>
       </c>
       <c r="D18" t="n">
-        <v>39552.58075000137</v>
+        <v>38644.283159554</v>
       </c>
       <c r="E18" t="n">
         <v>37926.900149457</v>
@@ -4275,13 +4275,13 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>44650.48708671331</v>
+        <v>41318.66579329967</v>
       </c>
       <c r="C19" t="n">
-        <v>40699.11677753925</v>
+        <v>38433.1609451968</v>
       </c>
       <c r="D19" t="n">
-        <v>38766.83228456085</v>
+        <v>44193.84971141815</v>
       </c>
       <c r="E19" t="n">
         <v>28801.41803231407</v>
@@ -4295,13 +4295,13 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>45375.39025259018</v>
+        <v>44542.24478960037</v>
       </c>
       <c r="C20" t="n">
-        <v>44195.05080127716</v>
+        <v>37776.41802746432</v>
       </c>
       <c r="D20" t="n">
-        <v>38199.33722449026</v>
+        <v>44636.67257785797</v>
       </c>
       <c r="E20" t="n">
         <v>20840.80453168031</v>
@@ -4315,13 +4315,13 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>44026.04086410999</v>
+        <v>43855.76662182808</v>
       </c>
       <c r="C21" t="n">
-        <v>45961.47469234467</v>
+        <v>39566.59801911983</v>
       </c>
       <c r="D21" t="n">
-        <v>39877.05676489169</v>
+        <v>46312.70853060484</v>
       </c>
       <c r="E21" t="n">
         <v>26747.47021958463</v>
@@ -4335,13 +4335,13 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>45108.02330392599</v>
+        <v>43869.76485002041</v>
       </c>
       <c r="C22" t="n">
-        <v>41862.62319153547</v>
+        <v>39526.96256979003</v>
       </c>
       <c r="D22" t="n">
-        <v>40595.14870672981</v>
+        <v>39853.98017072678</v>
       </c>
       <c r="E22" t="n">
         <v>33950.19626739908</v>
@@ -4355,13 +4355,13 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>38607.81684663892</v>
+        <v>38476.6965533793</v>
       </c>
       <c r="C23" t="n">
-        <v>38518.59641507268</v>
+        <v>37201.12778731134</v>
       </c>
       <c r="D23" t="n">
-        <v>37713.60227533646</v>
+        <v>37172.49668583274</v>
       </c>
       <c r="E23" t="n">
         <v>36482.76547242946</v>
@@ -4375,13 +4375,13 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>39277.11429318786</v>
+        <v>35790.8709706068</v>
       </c>
       <c r="C24" t="n">
-        <v>38871.08468106389</v>
+        <v>34921.44455476989</v>
       </c>
       <c r="D24" t="n">
-        <v>36594.66761276348</v>
+        <v>38661.6594529748</v>
       </c>
       <c r="E24" t="n">
         <v>31108.98172909446</v>
@@ -4395,13 +4395,13 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>39322.63816696405</v>
+        <v>38938.51757964492</v>
       </c>
       <c r="C25" t="n">
-        <v>38896.26015666127</v>
+        <v>36027.41335895852</v>
       </c>
       <c r="D25" t="n">
-        <v>36322.74566952667</v>
+        <v>38910.51124587655</v>
       </c>
       <c r="E25" t="n">
         <v>30460.30550008851</v>
@@ -4415,13 +4415,13 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>41342.80019265413</v>
+        <v>40175.81397637725</v>
       </c>
       <c r="C26" t="n">
-        <v>40479.60575294495</v>
+        <v>39784.6647962909</v>
       </c>
       <c r="D26" t="n">
-        <v>40192.94320315283</v>
+        <v>40944.75249430537</v>
       </c>
       <c r="E26" t="n">
         <v>40370.13995118008</v>
@@ -4435,13 +4435,13 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>39356.95713666081</v>
+        <v>39384.11401543021</v>
       </c>
       <c r="C27" t="n">
-        <v>40381.91842806339</v>
+        <v>35829.33204851914</v>
       </c>
       <c r="D27" t="n">
-        <v>36037.49665229886</v>
+        <v>40493.53483945131</v>
       </c>
       <c r="E27" t="n">
         <v>26968.15824804631</v>
@@ -4455,13 +4455,13 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>39077.86277031898</v>
+        <v>38920.49234211445</v>
       </c>
       <c r="C28" t="n">
-        <v>38772.39480173588</v>
+        <v>36099.13502917947</v>
       </c>
       <c r="D28" t="n">
-        <v>36068.82604188978</v>
+        <v>39546.53474992514</v>
       </c>
       <c r="E28" t="n">
         <v>29541.39077687894</v>
@@ -4475,13 +4475,13 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>37226.34126764536</v>
+        <v>33291.91561022401</v>
       </c>
       <c r="C29" t="n">
-        <v>33268.41928985715</v>
+        <v>33631.22550171901</v>
       </c>
       <c r="D29" t="n">
-        <v>34766.75518973574</v>
+        <v>34528.51960235834</v>
       </c>
       <c r="E29" t="n">
         <v>34651.66535810458</v>
@@ -4495,13 +4495,13 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>32150.00708344579</v>
+        <v>32322.69832152128</v>
       </c>
       <c r="C30" t="n">
-        <v>32887.65009883046</v>
+        <v>33201.28548651712</v>
       </c>
       <c r="D30" t="n">
-        <v>33316.88317637087</v>
+        <v>32429.61211052537</v>
       </c>
       <c r="E30" t="n">
         <v>36727.55289950126</v>
@@ -4515,13 +4515,13 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>36335.08715629578</v>
+        <v>35990.35757520795</v>
       </c>
       <c r="C31" t="n">
-        <v>33142.33152359724</v>
+        <v>33428.10606489885</v>
       </c>
       <c r="D31" t="n">
-        <v>32454.85948126805</v>
+        <v>36730.57167357206</v>
       </c>
       <c r="E31" t="n">
         <v>27602.07078235833</v>
@@ -4535,13 +4535,13 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>35940.19231882691</v>
+        <v>33041.742223382</v>
       </c>
       <c r="C32" t="n">
-        <v>32786.81090080738</v>
+        <v>29144.25365435289</v>
       </c>
       <c r="D32" t="n">
-        <v>30033.09460574553</v>
+        <v>34054.95634233952</v>
       </c>
       <c r="E32" t="n">
         <v>19641.45728172457</v>
@@ -4555,13 +4555,13 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>33746.47478398681</v>
+        <v>33915.28322252631</v>
       </c>
       <c r="C33" t="n">
-        <v>33151.67157763243</v>
+        <v>31142.33169258763</v>
       </c>
       <c r="D33" t="n">
-        <v>30900.61924971186</v>
+        <v>34102.67101982236</v>
       </c>
       <c r="E33" t="n">
         <v>25548.12296962889</v>
@@ -4575,13 +4575,13 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>33483.00742641091</v>
+        <v>35655.42339554429</v>
       </c>
       <c r="C34" t="n">
-        <v>37089.93459862471</v>
+        <v>33638.14779815183</v>
       </c>
       <c r="D34" t="n">
-        <v>34068.36145947547</v>
+        <v>33574.01072573662</v>
       </c>
       <c r="E34" t="n">
         <v>32750.84901744334</v>
@@ -4595,13 +4595,13 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>29012.09908087552</v>
+        <v>30458.99454765022</v>
       </c>
       <c r="C35" t="n">
-        <v>29824.71292021871</v>
+        <v>31231.71183054039</v>
       </c>
       <c r="D35" t="n">
-        <v>30506.48313405485</v>
+        <v>30402.51270438731</v>
       </c>
       <c r="E35" t="n">
         <v>35283.41822247372</v>
@@ -4615,13 +4615,13 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>29678.97409906983</v>
+        <v>28755.49156628549</v>
       </c>
       <c r="C36" t="n">
-        <v>31335.74569649994</v>
+        <v>28805.52810772061</v>
       </c>
       <c r="D36" t="n">
-        <v>29771.02265885482</v>
+        <v>30083.77891561389</v>
       </c>
       <c r="E36" t="n">
         <v>29909.63447913872</v>
@@ -4635,13 +4635,13 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>32694.6800981313</v>
+        <v>28874.46860401332</v>
       </c>
       <c r="C37" t="n">
-        <v>31288.0073132962</v>
+        <v>29201.13690999679</v>
       </c>
       <c r="D37" t="n">
-        <v>30606.03898132042</v>
+        <v>32257.3851094842</v>
       </c>
       <c r="E37" t="n">
         <v>29260.95825013277</v>
@@ -4655,13 +4655,13 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>32675.4374730587</v>
+        <v>33174.83898112178</v>
       </c>
       <c r="C38" t="n">
-        <v>34585.90720170736</v>
+        <v>33982.99306956143</v>
       </c>
       <c r="D38" t="n">
-        <v>34377.8267892252</v>
+        <v>33118.48751932383</v>
       </c>
       <c r="E38" t="n">
         <v>39170.79270122434</v>
@@ -4675,13 +4675,13 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>33114.59286692739</v>
+        <v>32806.85310009122</v>
       </c>
       <c r="C39" t="n">
-        <v>33252.02777159214</v>
+        <v>30164.32472596485</v>
       </c>
       <c r="D39" t="n">
-        <v>30600.63572689971</v>
+        <v>32819.2205722332</v>
       </c>
       <c r="E39" t="n">
         <v>25768.81099809057</v>
